--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="666">
   <si>
     <t xml:space="preserve">Ijara_LoginFieldName</t>
   </si>
@@ -2021,6 +2021,12 @@
   </si>
   <si>
     <t xml:space="preserve">document.querySelector('kub-prime-ccy[id="downPaymentAmount"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackButton_prev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('ion-buttons[slot="start"] ion-button')</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2158,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2225,6 +2231,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2235,40 +2245,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="33" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="34" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="33" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="34" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="33" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="34" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="33" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="34" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="33" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="34" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="34" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="33" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="34" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="34" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -2288,7 +2298,8 @@
     <cellStyle name="Result2 3" xfId="30"/>
     <cellStyle name="Result2 4" xfId="31"/>
     <cellStyle name="Result2 5" xfId="32"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="33"/>
+    <cellStyle name="Result2 6" xfId="33"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="34"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2366,9 +2377,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="153.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="153.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,7 +2462,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2459,9 +2470,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="101.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="101.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,6 +2713,14 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -2728,9 +2747,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="135.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="135.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,9 +2912,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="71.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="181.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="71.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="181.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,9 +3301,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="130.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="130.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,9 +3786,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="116.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="116.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,9 +4103,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="103.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="103.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,9 +4212,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="132.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="132.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,9 +4657,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,8 +5366,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="3" style="0" width="9.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\6532101cf0a0518f9a5d774e\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\653b5f2e18a37c28257d83cd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{930AC7DB-231F-4F0A-AA7F-EC2779662A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{747CE94D-071D-4BA8-BEBC-3184979283DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="795">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1124,7 +1124,7 @@
     <t>last_name_input</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="Last Name.TOOLTIP"]+ion-input input')</t>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LASTNAME.TOOLTIP"]+ion-input input')</t>
   </si>
   <si>
     <t>last_name_mandatory_verification</t>
@@ -1232,15 +1232,12 @@
     <t>maritail_status_dropdown</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]+ion-select')</t>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]+ion-select')</t>
   </si>
   <si>
     <t>education_level_dropdown</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]+ion-select')</t>
-  </si>
-  <si>
     <t>nationality_dropdown</t>
   </si>
   <si>
@@ -1346,6 +1343,156 @@
     <t>document.querySelector('ion-title[class$="ion-color-dark md title-default hydrated"]').innerText</t>
   </si>
   <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]')</t>
+  </si>
+  <si>
+    <t>gender_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>customerType_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_CUSTOMER_TYPE."]')</t>
+  </si>
+  <si>
+    <t>residentialStatus_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_RESIDENTIAL_ST"]')</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"]')</t>
+  </si>
+  <si>
+    <t>date_of_birth_field</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"]')</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>applicantType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.APPLICANT.TYPE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>noOfDepartment</t>
+  </si>
+  <si>
+    <t>document.querySelector('#noOfDependents &gt; ion-item').shadowRoot.querySelector('div.item-native &gt; div.item-inner &gt; div.input-wrapper')</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LASTNAME.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FIRSTNAME.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MIDDLENAME.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_SALUTAT"]')</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.LANGUAGE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>categoryOfClient</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="clientCategory"]')</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NATIONALITY.TOOLT"]')</t>
+  </si>
+  <si>
+    <t>blacklisted</t>
+  </si>
+  <si>
+    <t>document.querySelector("#isBlacklisted &gt; div")</t>
+  </si>
+  <si>
+    <t>Backbutton_customerdet</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>LastName_ErrorMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class="ng-star-inserted"] ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>CustomerDetail_Status</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_record</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-table[ng-reflect-data-key="id"] thead[class="p-datatable-thead"]').innerText</t>
+  </si>
+  <si>
+    <t>searchButton</t>
+  </si>
+  <si>
+    <t>addButton</t>
+  </si>
+  <si>
+    <t>addButton_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-col[class="align-self-center md hydrated"]').innerText</t>
+  </si>
+  <si>
+    <t>backButton_prev</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-buttons[slot="start"] ion-button')</t>
+  </si>
+  <si>
+    <t>inbox_title</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class="inboxDatacaption"]').innerText</t>
+  </si>
+  <si>
     <t>EmploymentDetailsElements</t>
   </si>
   <si>
@@ -1907,9 +2054,6 @@
     <t>SaveButton</t>
   </si>
   <si>
-    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
-  </si>
-  <si>
     <t>Classification</t>
   </si>
   <si>
@@ -2057,9 +2201,6 @@
     <t>BackButton_prev</t>
   </si>
   <si>
-    <t>document.querySelector('ion-buttons[slot="start"] ion-button')</t>
-  </si>
-  <si>
     <t>Inbox_title</t>
   </si>
   <si>
@@ -2103,9 +2244,6 @@
   </si>
   <si>
     <t>document.querySelector("#menu-content &gt; app-tabs &gt; kub-header &gt; ion-header &gt; ion-toolbar &gt; section &gt; ion-list &gt; ion-item:nth-child(2) &gt; div &gt; div &gt; ion-icon").shadowRoot.querySelector("div &gt; svg")</t>
-  </si>
-  <si>
-    <t>searchButton</t>
   </si>
   <si>
     <t>document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; button")</t>
@@ -2283,11 +2421,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rs.&quot;#,##0.00;[Red]&quot;-Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2303,13 +2442,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2335,9 +2468,24 @@
       <b/>
       <i/>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2358,7 +2506,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -2366,47 +2514,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="18">
     <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
     <cellStyle name="Excel Built-in Normal 1" xfId="3"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="4"/>
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="4"/>
     <cellStyle name="Heading" xfId="5"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading1" xfId="6"/>
     <cellStyle name="Heading1 1" xfId="7"/>
     <cellStyle name="Heading1 2" xfId="8"/>
+    <cellStyle name="Heading1_20_1" xfId="9"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="9"/>
-    <cellStyle name="Result 1" xfId="10"/>
-    <cellStyle name="Result 2" xfId="11"/>
-    <cellStyle name="Result2" xfId="12"/>
-    <cellStyle name="Result2 1" xfId="13"/>
-    <cellStyle name="Result2 2" xfId="14"/>
+    <cellStyle name="Result" xfId="10"/>
+    <cellStyle name="Result 1" xfId="11"/>
+    <cellStyle name="Result 2" xfId="12"/>
+    <cellStyle name="Result_20_1" xfId="13"/>
+    <cellStyle name="Result2" xfId="14"/>
+    <cellStyle name="Result2 1" xfId="15"/>
+    <cellStyle name="Result2 2" xfId="16"/>
+    <cellStyle name="Result2_20_1" xfId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2724,7 +2880,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -2792,7 +2948,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2806,12 +2962,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="93" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>620</v>
+        <v>669</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2819,15 +2977,15 @@
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>621</v>
+        <v>670</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>623</v>
+        <v>672</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>348</v>
@@ -2835,7 +2993,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>624</v>
+        <v>673</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -2843,239 +3001,239 @@
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>625</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>629</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>649</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>650</v>
+        <v>698</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>652</v>
+        <v>700</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>654</v>
+        <v>702</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>668</v>
+        <v>716</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>671</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>675</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>679</v>
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>680</v>
+        <v>727</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>322</v>
@@ -3083,22 +3241,22 @@
     </row>
     <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>681</v>
+        <v>728</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>682</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>684</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3112,14 +3270,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.4140625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="80" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>685</v>
+        <v>732</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3127,63 +3285,63 @@
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>687</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>618</v>
+        <v>667</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>688</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>689</v>
+        <v>736</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>690</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>691</v>
+        <v>479</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>692</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>693</v>
+        <v>739</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>696</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>698</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>699</v>
+        <v>745</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>61</v>
@@ -3191,202 +3349,202 @@
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>702</v>
+        <v>748</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>710</v>
+        <v>756</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>712</v>
+        <v>758</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>713</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>717</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>718</v>
+        <v>764</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>719</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>722</v>
+        <v>768</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>724</v>
+        <v>770</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>726</v>
+        <v>772</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>727</v>
+        <v>773</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>728</v>
+        <v>774</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>729</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>731</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>732</v>
+        <v>778</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>731</v>
+        <v>777</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>733</v>
+        <v>779</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>734</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>735</v>
+        <v>781</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>736</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>737</v>
+        <v>783</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>738</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>740</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>745</v>
+        <v>791</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>746</v>
+        <v>792</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>747</v>
+        <v>793</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3398,7 +3556,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3412,7 +3570,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.4140625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3584,7 +3744,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3598,7 +3758,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3962,7 +4123,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3976,7 +4137,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4436,7 +4597,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4450,7 +4611,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4742,7 +4904,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4756,7 +4918,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4840,7 +5002,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4848,13 +5010,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD52"/>
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51" style="1" customWidth="1"/>
+    <col min="2" max="2" width="115" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5094,63 +5258,63 @@
         <v>401</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5171,18 +5335,18 @@
     </row>
     <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5195,15 +5359,15 @@
     </row>
     <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>61</v>
@@ -5211,47 +5375,47 @@
     </row>
     <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>40</v>
@@ -5259,7 +5423,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>38</v>
@@ -5267,14 +5431,230 @@
     </row>
     <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>437</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>486</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5288,12 +5668,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5301,678 +5682,678 @@
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>517</v>
+        <v>566</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>520</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>521</v>
+        <v>570</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>523</v>
+        <v>572</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>526</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>527</v>
+        <v>576</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>529</v>
+        <v>578</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>530</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>531</v>
+        <v>580</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>537</v>
+        <v>586</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>538</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>540</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>542</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>543</v>
+        <v>592</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>546</v>
+        <v>595</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>556</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>558</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>560</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>561</v>
+        <v>610</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>562</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>564</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>568</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>569</v>
+        <v>618</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>570</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>571</v>
+        <v>620</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>572</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>577</v>
+        <v>626</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>583</v>
+        <v>632</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>591</v>
+        <v>640</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>592</v>
+        <v>641</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>593</v>
+        <v>642</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>595</v>
+        <v>644</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>602</v>
+        <v>651</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5986,12 +6367,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5999,7 +6380,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -6007,54 +6388,54 @@
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>611</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>616</v>
+        <v>665</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>617</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>618</v>
+        <v>667</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>619</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\653b5f2e18a37c28257d83cd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\65424c170c6c192082c67542\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747CE94D-071D-4BA8-BEBC-3184979283DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2972820F-5A6D-4A7D-8FB5-C2218F7C2CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
   </bookViews>
@@ -24,13 +24,14 @@
     <sheet name="CustomerDebt" sheetId="9" r:id="rId9"/>
     <sheet name="appDataEntry_js" sheetId="10" r:id="rId10"/>
     <sheet name="Murabha_Repayment_js" sheetId="11" r:id="rId11"/>
+    <sheet name="murabha_identificationdetail_js" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="839">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2415,6 +2416,138 @@
   </si>
   <si>
     <t>document.querySelector('ion-label[ng-reflect-text="ECS CODE.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>identificationDetailElement</t>
+  </si>
+  <si>
+    <t>AdditionalCustomerInfo_tab</t>
+  </si>
+  <si>
+    <t>ViewButton_customerIdentification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-icon[aria-label="information circle outline"]')</t>
+  </si>
+  <si>
+    <t>BackButton_identificationDetail</t>
+  </si>
+  <si>
+    <t>ViewButton</t>
+  </si>
+  <si>
+    <t>Id_Type</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="ID Type tooltip"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Id_Number</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="SCR.ID_NUMBER.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Issue_Date</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"').firstElementChild.firstElementChild.querySelector('p-calendar')</t>
+  </si>
+  <si>
+    <t>Expiry_Date</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EXPIRY_DATE.TOOLTIP"').firstElementChild.firstElementChild.lastChild</t>
+  </si>
+  <si>
+    <t>IssuingAuthority</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Issuing Authority"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>CountryOfIssue</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Country of Issue"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Issue_Date_Value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.ISSUE_DATE.TOOLTIP"] p-calendar[ng-reflect-view="date"]')</t>
+  </si>
+  <si>
+    <t>Expiry_Date_Value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.EXPIRY_DATE.TOOLTIP"] p-calendar[ng-reflect-view="date"]')</t>
+  </si>
+  <si>
+    <t>Id_Type_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-form-control-name-label="idType"]&gt;ion-item&gt;ion-select')</t>
+  </si>
+  <si>
+    <t>Id_Number_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.ID_NUMBER"]')</t>
+  </si>
+  <si>
+    <t>Issue_Date_Attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="dateOfIssue"]')</t>
+  </si>
+  <si>
+    <t>Issue_Date_calender</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="dateOfIssue"] button')</t>
+  </si>
+  <si>
+    <t>Expiry_Date_calender</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="dateOfExpiry"] button')</t>
+  </si>
+  <si>
+    <t>Expiry_Date_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="dateOfExpiry"]')</t>
+  </si>
+  <si>
+    <t>IssuingAuthority_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="issuingAuthority"] ion-select')</t>
+  </si>
+  <si>
+    <t>CountryOfIssue_Attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="placeOfIssue"] ion-select')</t>
+  </si>
+  <si>
+    <t>help_description</t>
+  </si>
+  <si>
+    <t>document.querySelector('pre[class="ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>BackButton_navigate</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"]')[1]</t>
+  </si>
+  <si>
+    <t>BackButtonVerification</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('data-grid[ng-reflect-grid-layout="12"] ion-title')[1].innerText</t>
   </si>
 </sst>
 </file>
@@ -2426,7 +2559,7 @@
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;Rs.&quot;#,##0.00;[Red]&quot;-Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2445,6 +2578,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -2489,12 +2628,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0084D1"/>
+        <bgColor rgb="FF0084D1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2506,7 +2651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -2514,12 +2659,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2528,41 +2698,116 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="51">
     <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="3"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="4"/>
-    <cellStyle name="Heading" xfId="5"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="4"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="5"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="6"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="7"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="8"/>
+    <cellStyle name="Excel Built-in Heading 1 7" xfId="9"/>
+    <cellStyle name="Excel Built-in Heading 1 8" xfId="10"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="11"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="12"/>
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="13"/>
+    <cellStyle name="Heading" xfId="14"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="6"/>
-    <cellStyle name="Heading1 1" xfId="7"/>
-    <cellStyle name="Heading1 2" xfId="8"/>
-    <cellStyle name="Heading1_20_1" xfId="9"/>
+    <cellStyle name="Heading1" xfId="15"/>
+    <cellStyle name="Heading1 1" xfId="16"/>
+    <cellStyle name="Heading1 10" xfId="17"/>
+    <cellStyle name="Heading1 2" xfId="18"/>
+    <cellStyle name="Heading1 3" xfId="19"/>
+    <cellStyle name="Heading1 4" xfId="20"/>
+    <cellStyle name="Heading1 5" xfId="21"/>
+    <cellStyle name="Heading1 6" xfId="22"/>
+    <cellStyle name="Heading1 7" xfId="23"/>
+    <cellStyle name="Heading1 8" xfId="24"/>
+    <cellStyle name="Heading1 9" xfId="25"/>
+    <cellStyle name="Heading1_20_1" xfId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="10"/>
-    <cellStyle name="Result 1" xfId="11"/>
-    <cellStyle name="Result 2" xfId="12"/>
-    <cellStyle name="Result_20_1" xfId="13"/>
-    <cellStyle name="Result2" xfId="14"/>
-    <cellStyle name="Result2 1" xfId="15"/>
-    <cellStyle name="Result2 2" xfId="16"/>
-    <cellStyle name="Result2_20_1" xfId="17"/>
+    <cellStyle name="Result" xfId="27"/>
+    <cellStyle name="Result 1" xfId="28"/>
+    <cellStyle name="Result 10" xfId="29"/>
+    <cellStyle name="Result 2" xfId="30"/>
+    <cellStyle name="Result 3" xfId="31"/>
+    <cellStyle name="Result 4" xfId="32"/>
+    <cellStyle name="Result 5" xfId="33"/>
+    <cellStyle name="Result 6" xfId="34"/>
+    <cellStyle name="Result 7" xfId="35"/>
+    <cellStyle name="Result 8" xfId="36"/>
+    <cellStyle name="Result 9" xfId="37"/>
+    <cellStyle name="Result_20_1" xfId="38"/>
+    <cellStyle name="Result2" xfId="39"/>
+    <cellStyle name="Result2 1" xfId="40"/>
+    <cellStyle name="Result2 10" xfId="41"/>
+    <cellStyle name="Result2 2" xfId="42"/>
+    <cellStyle name="Result2 3" xfId="43"/>
+    <cellStyle name="Result2 4" xfId="44"/>
+    <cellStyle name="Result2 5" xfId="45"/>
+    <cellStyle name="Result2 6" xfId="46"/>
+    <cellStyle name="Result2 7" xfId="47"/>
+    <cellStyle name="Result2 8" xfId="48"/>
+    <cellStyle name="Result2 9" xfId="49"/>
+    <cellStyle name="Result2_20_1" xfId="50"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2880,7 +3125,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -2948,7 +3193,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2962,9 +3207,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="93" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="109.33203125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3256,7 +3501,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3270,9 +3515,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.08203125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3556,9 +3801,232 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="1024" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>813</v>
+      </c>
+      <c r="B13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B14" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>819</v>
+      </c>
+      <c r="B16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>823</v>
+      </c>
+      <c r="B18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>825</v>
+      </c>
+      <c r="B19" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>827</v>
+      </c>
+      <c r="B20" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>829</v>
+      </c>
+      <c r="B21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>831</v>
+      </c>
+      <c r="B22" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>833</v>
+      </c>
+      <c r="B23" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>835</v>
+      </c>
+      <c r="B24" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>837</v>
+      </c>
+      <c r="B25" t="s">
+        <v>838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="31.041732283464569" bottom="31.041732283464569" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3570,9 +4038,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.4140625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="93.33203125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3744,7 +4212,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3758,8 +4226,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4123,7 +4591,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4137,7 +4605,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4597,7 +5065,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4611,8 +5079,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4904,7 +5372,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4918,7 +5386,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5002,7 +5470,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5016,9 +5484,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51" style="1" customWidth="1"/>
-    <col min="2" max="2" width="115" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="59.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="135.25" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5654,7 +6122,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5668,8 +6136,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08203125" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -6353,7 +6821,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -6367,7 +6835,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="10.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="12.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -6435,7 +6903,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="3.9366141732283464" bottom="3.9366141732283464" header="3.5429133858267718" footer="3.5429133858267718"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\65424c170c6c192082c67542\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\654df564b4688faaf4faaa7e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2972820F-5A6D-4A7D-8FB5-C2218F7C2CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDC7B57-72BD-4836-92D7-7B1B0DB1782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="16800" windowHeight="9760"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="CustomerDebt" sheetId="9" r:id="rId9"/>
     <sheet name="appDataEntry_js" sheetId="10" r:id="rId10"/>
     <sheet name="Murabha_Repayment_js" sheetId="11" r:id="rId11"/>
-    <sheet name="murabha_identificationdetail_js" sheetId="12" r:id="rId12"/>
+    <sheet name="Tawarooq_Repayment" sheetId="12" r:id="rId12"/>
+    <sheet name="murabha_identificationdetail_js" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="840">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -195,7 +196,7 @@
     <t>submit_ActCon</t>
   </si>
   <si>
-    <t>document.querySelectorAll('button[label="Submit"]')[1]</t>
+    <t>document.querySelectorAll('button[label="Submit"]')[0]</t>
   </si>
   <si>
     <t>Submit_Btn</t>
@@ -2416,6 +2417,9 @@
   </si>
   <si>
     <t>document.querySelector('ion-label[ng-reflect-text="ECS CODE.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>AddButton</t>
   </si>
   <si>
     <t>identificationDetailElement</t>
@@ -2651,12 +2655,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -2680,9 +2693,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2693,6 +2703,12 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
@@ -2728,6 +2744,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
@@ -2748,66 +2766,76 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="59">
     <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
     <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
-    <cellStyle name="Excel Built-in Heading 1 2" xfId="4"/>
-    <cellStyle name="Excel Built-in Heading 1 3" xfId="5"/>
-    <cellStyle name="Excel Built-in Heading 1 4" xfId="6"/>
-    <cellStyle name="Excel Built-in Heading 1 5" xfId="7"/>
-    <cellStyle name="Excel Built-in Heading 1 6" xfId="8"/>
-    <cellStyle name="Excel Built-in Heading 1 7" xfId="9"/>
-    <cellStyle name="Excel Built-in Heading 1 8" xfId="10"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="11"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="12"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="13"/>
-    <cellStyle name="Heading" xfId="14"/>
+    <cellStyle name="Excel Built-in Heading 1 10" xfId="4"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="5"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="6"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="7"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="8"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="9"/>
+    <cellStyle name="Excel Built-in Heading 1 7" xfId="10"/>
+    <cellStyle name="Excel Built-in Heading 1 8" xfId="11"/>
+    <cellStyle name="Excel Built-in Heading 1 9" xfId="12"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="13"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="14"/>
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="15"/>
+    <cellStyle name="Heading" xfId="16"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="15"/>
-    <cellStyle name="Heading1 1" xfId="16"/>
-    <cellStyle name="Heading1 10" xfId="17"/>
-    <cellStyle name="Heading1 2" xfId="18"/>
-    <cellStyle name="Heading1 3" xfId="19"/>
-    <cellStyle name="Heading1 4" xfId="20"/>
-    <cellStyle name="Heading1 5" xfId="21"/>
-    <cellStyle name="Heading1 6" xfId="22"/>
-    <cellStyle name="Heading1 7" xfId="23"/>
-    <cellStyle name="Heading1 8" xfId="24"/>
-    <cellStyle name="Heading1 9" xfId="25"/>
-    <cellStyle name="Heading1_20_1" xfId="26"/>
+    <cellStyle name="Heading1" xfId="17"/>
+    <cellStyle name="Heading1 1" xfId="18"/>
+    <cellStyle name="Heading1 10" xfId="19"/>
+    <cellStyle name="Heading1 11" xfId="20"/>
+    <cellStyle name="Heading1 12" xfId="21"/>
+    <cellStyle name="Heading1 2" xfId="22"/>
+    <cellStyle name="Heading1 3" xfId="23"/>
+    <cellStyle name="Heading1 4" xfId="24"/>
+    <cellStyle name="Heading1 5" xfId="25"/>
+    <cellStyle name="Heading1 6" xfId="26"/>
+    <cellStyle name="Heading1 7" xfId="27"/>
+    <cellStyle name="Heading1 8" xfId="28"/>
+    <cellStyle name="Heading1 9" xfId="29"/>
+    <cellStyle name="Heading1_20_1" xfId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="27"/>
-    <cellStyle name="Result 1" xfId="28"/>
-    <cellStyle name="Result 10" xfId="29"/>
-    <cellStyle name="Result 2" xfId="30"/>
-    <cellStyle name="Result 3" xfId="31"/>
-    <cellStyle name="Result 4" xfId="32"/>
-    <cellStyle name="Result 5" xfId="33"/>
-    <cellStyle name="Result 6" xfId="34"/>
-    <cellStyle name="Result 7" xfId="35"/>
-    <cellStyle name="Result 8" xfId="36"/>
-    <cellStyle name="Result 9" xfId="37"/>
-    <cellStyle name="Result_20_1" xfId="38"/>
-    <cellStyle name="Result2" xfId="39"/>
-    <cellStyle name="Result2 1" xfId="40"/>
-    <cellStyle name="Result2 10" xfId="41"/>
-    <cellStyle name="Result2 2" xfId="42"/>
-    <cellStyle name="Result2 3" xfId="43"/>
-    <cellStyle name="Result2 4" xfId="44"/>
-    <cellStyle name="Result2 5" xfId="45"/>
-    <cellStyle name="Result2 6" xfId="46"/>
-    <cellStyle name="Result2 7" xfId="47"/>
-    <cellStyle name="Result2 8" xfId="48"/>
-    <cellStyle name="Result2 9" xfId="49"/>
-    <cellStyle name="Result2_20_1" xfId="50"/>
+    <cellStyle name="Result" xfId="31"/>
+    <cellStyle name="Result 1" xfId="32"/>
+    <cellStyle name="Result 10" xfId="33"/>
+    <cellStyle name="Result 11" xfId="34"/>
+    <cellStyle name="Result 12" xfId="35"/>
+    <cellStyle name="Result 2" xfId="36"/>
+    <cellStyle name="Result 3" xfId="37"/>
+    <cellStyle name="Result 4" xfId="38"/>
+    <cellStyle name="Result 5" xfId="39"/>
+    <cellStyle name="Result 6" xfId="40"/>
+    <cellStyle name="Result 7" xfId="41"/>
+    <cellStyle name="Result 8" xfId="42"/>
+    <cellStyle name="Result 9" xfId="43"/>
+    <cellStyle name="Result_20_1" xfId="44"/>
+    <cellStyle name="Result2" xfId="45"/>
+    <cellStyle name="Result2 1" xfId="46"/>
+    <cellStyle name="Result2 10" xfId="47"/>
+    <cellStyle name="Result2 11" xfId="48"/>
+    <cellStyle name="Result2 12" xfId="49"/>
+    <cellStyle name="Result2 2" xfId="50"/>
+    <cellStyle name="Result2 3" xfId="51"/>
+    <cellStyle name="Result2 4" xfId="52"/>
+    <cellStyle name="Result2 5" xfId="53"/>
+    <cellStyle name="Result2 6" xfId="54"/>
+    <cellStyle name="Result2 7" xfId="55"/>
+    <cellStyle name="Result2 8" xfId="56"/>
+    <cellStyle name="Result2 9" xfId="57"/>
+    <cellStyle name="Result2_20_1" xfId="58"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3125,7 +3153,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3193,7 +3221,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3207,9 +3235,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="109.33203125" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="113.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3501,7 +3529,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3509,15 +3537,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD35"/>
+  <dimension ref="A1:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="61" style="1" customWidth="1"/>
-    <col min="2" max="2" width="94.08203125" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="98" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3800,8 +3828,16 @@
         <v>56</v>
       </c>
     </row>
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3809,20 +3845,331 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.9140625" customWidth="1"/>
+    <col min="3" max="1024" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>795</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.63543307086614176" bottom="0.63543307086614176" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="1024" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="1024" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3830,7 +4177,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -3838,7 +4185,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B3" t="s">
         <v>491</v>
@@ -3849,12 +4196,12 @@
         <v>762</v>
       </c>
       <c r="B4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>473</v>
@@ -3862,7 +4209,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B6" t="s">
         <v>493</v>
@@ -3870,158 +4217,158 @@
     </row>
     <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B13" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B14" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B15" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B16" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B17" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B18" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B19" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B20" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B21" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B23" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B24" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B25" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="31.041732283464569" bottom="31.041732283464569" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="78.197244094488184" bottom="78.197244094488184" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -4038,9 +4385,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="93.33203125" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4212,7 +4559,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4226,8 +4573,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4591,7 +4938,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4605,7 +4952,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5065,7 +5412,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5079,8 +5426,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.9140625" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5372,7 +5719,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5386,7 +5733,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5470,7 +5817,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5484,9 +5831,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="135.25" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="62.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="140.83203125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -6122,7 +6469,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -6136,8 +6483,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.08203125" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.58203125" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -6821,7 +7168,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -6835,7 +7182,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="12.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="13.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -6903,7 +7250,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.0866141732283463" bottom="7.0866141732283463" header="6.6929133858267713" footer="6.6929133858267713"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\654df564b4688faaf4faaa7e\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\6555fce88c3733a40c46c032\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDC7B57-72BD-4836-92D7-7B1B0DB1782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B315C65E-E808-4AE3-BE97-BC8C2ACD0FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="16800" windowHeight="9760"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="Murabha_Repayment_js" sheetId="11" r:id="rId11"/>
     <sheet name="Tawarooq_Repayment" sheetId="12" r:id="rId12"/>
     <sheet name="murabha_identificationdetail_js" sheetId="13" r:id="rId13"/>
+    <sheet name="DocumentDetails_js" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="895">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2552,22 +2553,192 @@
   </si>
   <si>
     <t>document.querySelectorAll('data-grid[ng-reflect-grid-layout="12"] ion-title')[1].innerText</t>
+  </si>
+  <si>
+    <t>DocumentDetailElement</t>
+  </si>
+  <si>
+    <t>documentDetails_module</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg13"]')</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>documentName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>requiredAtStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="REQUIRED_AT_STAGE.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>documentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>mandatory/optional</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="MANDATORY_OR_OPTIONAL.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>documentCategory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>uploadDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="uploadDate"]')</t>
+  </si>
+  <si>
+    <t>expectedReceiptDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="expectedDateOfReceipt"]')</t>
+  </si>
+  <si>
+    <t>referralStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deferral Stage.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>defApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DEF_APPROVED_BY.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>changeInNatureApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Change In Nature Approved By.T"]+ion-select')</t>
+  </si>
+  <si>
+    <t>documentForm</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>documentQuality</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>documentReferrenceNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>documentReceivedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_APPROVED_BY.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>locationWhereReceived</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_DETAILS_LOCATION_WHER"]+ion-select')</t>
+  </si>
+  <si>
+    <t>rackNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>shelfNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>boxNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>dateOfExpiry</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="expiryDate"]')</t>
+  </si>
+  <si>
+    <t>ladgementAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Lodgement Amount.TOOLTIP"] + ion-input')</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]+ion-textarea')</t>
+  </si>
+  <si>
+    <t>uploadDate_calender</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="uploadDate"] button')</t>
+  </si>
+  <si>
+    <t>rackNo_nonmandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="rackNumber"]')</t>
+  </si>
+  <si>
+    <t>shelfno_nonMandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="shelfNumber"]')</t>
+  </si>
+  <si>
+    <t>boxNo_nonMandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="boxNumber"]')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;Rs.&quot;#,##0.00;[Red]&quot;-Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -2576,18 +2747,6 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -2604,15 +2763,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2655,187 +2805,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="14"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="59">
-    <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
-    <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
-    <cellStyle name="Excel Built-in Heading 1 10" xfId="4"/>
-    <cellStyle name="Excel Built-in Heading 1 2" xfId="5"/>
-    <cellStyle name="Excel Built-in Heading 1 3" xfId="6"/>
-    <cellStyle name="Excel Built-in Heading 1 4" xfId="7"/>
-    <cellStyle name="Excel Built-in Heading 1 5" xfId="8"/>
-    <cellStyle name="Excel Built-in Heading 1 6" xfId="9"/>
-    <cellStyle name="Excel Built-in Heading 1 7" xfId="10"/>
-    <cellStyle name="Excel Built-in Heading 1 8" xfId="11"/>
-    <cellStyle name="Excel Built-in Heading 1 9" xfId="12"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="13"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="14"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="15"/>
-    <cellStyle name="Heading" xfId="16"/>
+  <cellStyles count="14">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="3"/>
+    <cellStyle name="Heading" xfId="4"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="17"/>
-    <cellStyle name="Heading1 1" xfId="18"/>
-    <cellStyle name="Heading1 10" xfId="19"/>
-    <cellStyle name="Heading1 11" xfId="20"/>
-    <cellStyle name="Heading1 12" xfId="21"/>
-    <cellStyle name="Heading1 2" xfId="22"/>
-    <cellStyle name="Heading1 3" xfId="23"/>
-    <cellStyle name="Heading1 4" xfId="24"/>
-    <cellStyle name="Heading1 5" xfId="25"/>
-    <cellStyle name="Heading1 6" xfId="26"/>
-    <cellStyle name="Heading1 7" xfId="27"/>
-    <cellStyle name="Heading1 8" xfId="28"/>
-    <cellStyle name="Heading1 9" xfId="29"/>
-    <cellStyle name="Heading1_20_1" xfId="30"/>
+    <cellStyle name="Heading1" xfId="5"/>
+    <cellStyle name="Heading1 1" xfId="6"/>
+    <cellStyle name="Heading1 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="31"/>
-    <cellStyle name="Result 1" xfId="32"/>
-    <cellStyle name="Result 10" xfId="33"/>
-    <cellStyle name="Result 11" xfId="34"/>
-    <cellStyle name="Result 12" xfId="35"/>
-    <cellStyle name="Result 2" xfId="36"/>
-    <cellStyle name="Result 3" xfId="37"/>
-    <cellStyle name="Result 4" xfId="38"/>
-    <cellStyle name="Result 5" xfId="39"/>
-    <cellStyle name="Result 6" xfId="40"/>
-    <cellStyle name="Result 7" xfId="41"/>
-    <cellStyle name="Result 8" xfId="42"/>
-    <cellStyle name="Result 9" xfId="43"/>
-    <cellStyle name="Result_20_1" xfId="44"/>
-    <cellStyle name="Result2" xfId="45"/>
-    <cellStyle name="Result2 1" xfId="46"/>
-    <cellStyle name="Result2 10" xfId="47"/>
-    <cellStyle name="Result2 11" xfId="48"/>
-    <cellStyle name="Result2 12" xfId="49"/>
-    <cellStyle name="Result2 2" xfId="50"/>
-    <cellStyle name="Result2 3" xfId="51"/>
-    <cellStyle name="Result2 4" xfId="52"/>
-    <cellStyle name="Result2 5" xfId="53"/>
-    <cellStyle name="Result2 6" xfId="54"/>
-    <cellStyle name="Result2 7" xfId="55"/>
-    <cellStyle name="Result2 8" xfId="56"/>
-    <cellStyle name="Result2 9" xfId="57"/>
-    <cellStyle name="Result2_20_1" xfId="58"/>
+    <cellStyle name="Result" xfId="8"/>
+    <cellStyle name="Result 1" xfId="9"/>
+    <cellStyle name="Result 2" xfId="10"/>
+    <cellStyle name="Result2" xfId="11"/>
+    <cellStyle name="Result2 1" xfId="12"/>
+    <cellStyle name="Result2 2" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3153,7 +3171,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3221,7 +3239,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3235,9 +3253,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="113.83203125" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="120.9140625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3529,7 +3547,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3543,9 +3561,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="98" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="67.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="104.1640625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -3837,7 +3855,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3851,9 +3869,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.08203125" customWidth="1"/>
-    <col min="2" max="2" width="10.9140625" customWidth="1"/>
-    <col min="3" max="1024" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="1024" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4145,7 +4163,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.63543307086614176" bottom="0.63543307086614176" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="4.014173228346456" bottom="4.014173228346456" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -4162,9 +4180,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="1024" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" customWidth="1"/>
+    <col min="3" max="1024" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4368,11 +4386,290 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="78.197244094488184" bottom="78.197244094488184" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="123.88622047244094" bottom="123.88622047244094" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="1024" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>847</v>
+      </c>
+      <c r="B6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B8" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>853</v>
+      </c>
+      <c r="B9" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>855</v>
+      </c>
+      <c r="B10" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>857</v>
+      </c>
+      <c r="B11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>859</v>
+      </c>
+      <c r="B12" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>863</v>
+      </c>
+      <c r="B14" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>865</v>
+      </c>
+      <c r="B15" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>867</v>
+      </c>
+      <c r="B16" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>869</v>
+      </c>
+      <c r="B17" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>871</v>
+      </c>
+      <c r="B18" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>873</v>
+      </c>
+      <c r="B19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>875</v>
+      </c>
+      <c r="B20" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>877</v>
+      </c>
+      <c r="B21" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>879</v>
+      </c>
+      <c r="B22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>881</v>
+      </c>
+      <c r="B23" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>883</v>
+      </c>
+      <c r="B24" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>885</v>
+      </c>
+      <c r="B25" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>795</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>887</v>
+      </c>
+      <c r="B29" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>889</v>
+      </c>
+      <c r="B30" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>891</v>
+      </c>
+      <c r="B31" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>893</v>
+      </c>
+      <c r="B32" t="s">
+        <v>894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.713779527559055" bottom="1.713779527559055" header="0.78740157480314954" footer="0.78740157480314954"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4385,9 +4682,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.1640625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="103.25" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4559,7 +4856,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4573,8 +4870,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -4938,7 +5235,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4952,7 +5249,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5412,7 +5709,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5426,8 +5723,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.9140625" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.9140625" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5719,7 +6016,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5733,7 +6030,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -5817,7 +6114,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -5831,9 +6128,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.4140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="140.83203125" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="66.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="149.58203125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -6469,7 +6766,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -6483,8 +6780,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.58203125" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -7168,7 +7465,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -7182,7 +7479,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="13.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -7250,7 +7547,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.8744094488188985" bottom="7.8744094488188985" header="7.4807086614173235" footer="7.4807086614173235"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\6555fce88c3733a40c46c032\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B315C65E-E808-4AE3-BE97-BC8C2ACD0FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -27,13 +21,16 @@
     <sheet name="Tawarooq_Repayment" sheetId="12" r:id="rId12"/>
     <sheet name="murabha_identificationdetail_js" sheetId="13" r:id="rId13"/>
     <sheet name="DocumentDetails_js" sheetId="14" r:id="rId14"/>
+    <sheet name="tawa_offering_js" sheetId="15" r:id="rId15"/>
+    <sheet name="Tawa_Commodity_InsuranceInfo" sheetId="16" r:id="rId16"/>
+    <sheet name="Tawa_commodity_documentDetail" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1073">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1103,7 +1100,7 @@
     <t>first_name_input</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="First Name.TOOLTIP"]+ion-input input')</t>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FIRSTNAME.TOOLTIP"]+ion-input input')</t>
   </si>
   <si>
     <t>first_Name_mandatory_verification</t>
@@ -1151,7 +1148,7 @@
     <t>first_name_arabic_input</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="First Name (Arabic).TOOLTIP"]+ion-input input')</t>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"] ion-input input')</t>
   </si>
   <si>
     <t>first_name_arabic_mandatory_verification</t>
@@ -1175,7 +1172,7 @@
     <t>last_name_arabic_input</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="Last Name (Arabic).TOOLTIP"]+ion-input input')</t>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"] ion-input input')</t>
   </si>
   <si>
     <t>last_name_arabic_mandatory_verification</t>
@@ -1235,12 +1232,15 @@
     <t>maritail_status_dropdown</t>
   </si>
   <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>education_level_dropdown</t>
+  </si>
+  <si>
     <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]+ion-select')</t>
   </si>
   <si>
-    <t>education_level_dropdown</t>
-  </si>
-  <si>
     <t>nationality_dropdown</t>
   </si>
   <si>
@@ -1262,7 +1262,7 @@
     <t>client_category_dropdown</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="Client Category.TOOLTIP"]+ion-select')</t>
+    <t>document.querySelector('ion-label[ng-reflect-text="CustomerDetailsIslamic_Form_01"]+ion-select')</t>
   </si>
   <si>
     <t>consent_obtained_for_credit_bureau_dropdown</t>
@@ -1280,7 +1280,10 @@
     <t>no_of_dependents_mandatory_verification</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]').innerText</t>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"]')</t>
   </si>
   <si>
     <t>blacklisted_toggle</t>
@@ -1292,7 +1295,7 @@
     <t>blacklisted_mandatory_verification</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="SCR.BLACKLISTED.TOOLTIP"]').innerText</t>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.BLACKLISTED"]')</t>
   </si>
   <si>
     <t>first_name_input_field_level_validation</t>
@@ -1370,130 +1373,265 @@
     <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_RESIDENTIAL_ST"]')</t>
   </si>
   <si>
+    <t>Status_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle[role="switch"]')</t>
+  </si>
+  <si>
+    <t>date_of_birth_field</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"]')</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>applicantType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.APPLICANT.TYPE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>noOfDepartment</t>
+  </si>
+  <si>
+    <t>document.querySelector('#noOfDependents &gt; ion-item').shadowRoot.querySelector('div.item-native &gt; div.item-inner &gt; div.input-wrapper')</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LASTNAME.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FIRSTNAME.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MIDDLENAME.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_SALUTAT"]')</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.LANGUAGE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>categoryOfClient</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="clientCategory"]')</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NATIONALITY.TOOLT"]')</t>
+  </si>
+  <si>
+    <t>blacklisted</t>
+  </si>
+  <si>
+    <t>document.querySelector("#isBlacklisted &gt; div")</t>
+  </si>
+  <si>
+    <t>Backbutton_customerdet</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>LastName_ErrorMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class="ng-star-inserted"] ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>CustomerDetail_Status</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_record</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-table[ng-reflect-data-key="id"] thead[class="p-datatable-thead"]').innerText</t>
+  </si>
+  <si>
+    <t>searchButton</t>
+  </si>
+  <si>
+    <t>addButton</t>
+  </si>
+  <si>
+    <t>addButton_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-col[class="align-self-center md hydrated"]').innerText</t>
+  </si>
+  <si>
+    <t>backButton_prev</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-buttons[slot="start"] ion-button')</t>
+  </si>
+  <si>
+    <t>inbox_title</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class="inboxDatacaption"]').innerText</t>
+  </si>
+  <si>
+    <t>familyName_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"] ion-input')</t>
+  </si>
+  <si>
+    <t>firstName_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"] ion-input')</t>
+  </si>
+  <si>
+    <t>middleName_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"] ion-input')</t>
+  </si>
+  <si>
+    <t>lastName_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"] ion-input')</t>
+  </si>
+  <si>
+    <t>familyName_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"] ion-input')</t>
+  </si>
+  <si>
+    <t>no_of_dependents</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="noOfDependents"] ion-input')</t>
+  </si>
+  <si>
+    <t>remarks_inputt</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] ion-input')</t>
+  </si>
+  <si>
+    <t>firstName_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FIRSTNAME.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>middleName_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MIDDLENAME.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>lastName_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LASTNAME.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>familyName_mandi</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_FAMILY_"]')</t>
+  </si>
+  <si>
+    <t>firstName_arabic_mandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CustomerDetailsIslamic_Form_01"]')</t>
+  </si>
+  <si>
+    <t>middleName_arabic_mandatory</t>
+  </si>
+  <si>
+    <t>lastName_arabic_mandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>familyName_arabic_mandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>date_of_birth_field_calendar</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"] p-calendar span  button')</t>
+  </si>
+  <si>
+    <t>age_input_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="LEAD_DETAILS.AGE"] ion-input')</t>
+  </si>
+  <si>
+    <t>gender_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="gender"] ion-select')</t>
+  </si>
+  <si>
+    <t>firstname_errMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[msg="VAL.ALPHABET.ALLOWED"] ion-badge')</t>
+  </si>
+  <si>
+    <t>noOfDependents_errmsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-generic-msg="Please enter a value that is n"]&gt;ion-badge')</t>
+  </si>
+  <si>
+    <t>today_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t>calender</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-calendar"]')</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"]')</t>
-  </si>
-  <si>
-    <t>date_of_birth_field</t>
-  </si>
-  <si>
-    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"]')</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>applicantType</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="SCR.APPLICANT.TYPE.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>noOfDepartment</t>
-  </si>
-  <si>
-    <t>document.querySelector('#noOfDependents &gt; ion-item').shadowRoot.querySelector('div.item-native &gt; div.item-inner &gt; div.input-wrapper')</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LASTNAME.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FIRSTNAME.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>middleName</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MIDDLENAME.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_SALUTAT"]')</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.LANGUAGE.TOOLTIP"]')</t>
-  </si>
-  <si>
-    <t>categoryOfClient</t>
-  </si>
-  <si>
-    <t>document.querySelector('digital-select-layout[ng-reflect-name="clientCategory"]')</t>
-  </si>
-  <si>
-    <t>maritalStatus</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NATIONALITY.TOOLT"]')</t>
-  </si>
-  <si>
-    <t>blacklisted</t>
-  </si>
-  <si>
-    <t>document.querySelector("#isBlacklisted &gt; div")</t>
-  </si>
-  <si>
-    <t>Backbutton_customerdet</t>
-  </si>
-  <si>
-    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
-  </si>
-  <si>
-    <t>LastName_ErrorMsg</t>
-  </si>
-  <si>
-    <t>document.querySelector('span[class="ng-star-inserted"] ion-badge').innerText</t>
-  </si>
-  <si>
-    <t>CustomerDetail_Status</t>
-  </si>
-  <si>
-    <t>customer_details_list_view_record</t>
-  </si>
-  <si>
-    <t>document.querySelector('p-table[ng-reflect-data-key="id"] thead[class="p-datatable-thead"]').innerText</t>
-  </si>
-  <si>
-    <t>searchButton</t>
-  </si>
-  <si>
-    <t>addButton</t>
-  </si>
-  <si>
-    <t>addButton_verification</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-col[class="align-self-center md hydrated"]').innerText</t>
-  </si>
-  <si>
-    <t>backButton_prev</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-buttons[slot="start"] ion-button')</t>
-  </si>
-  <si>
-    <t>inbox_title</t>
-  </si>
-  <si>
-    <t>document.querySelector('span[class="inboxDatacaption"]').innerText</t>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"]')</t>
   </si>
   <si>
     <t>EmploymentDetailsElements</t>
@@ -2718,28 +2856,427 @@
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="boxNumber"]')</t>
+  </si>
+  <si>
+    <t>OfferDetailsElement</t>
+  </si>
+  <si>
+    <t>searchButtonUnderTab</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"]')</t>
+  </si>
+  <si>
+    <t>AmountRequest</t>
+  </si>
+  <si>
+    <t>DownPaymentPercentage</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Amount"]')</t>
+  </si>
+  <si>
+    <t>DownPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Additional Down payment"]')</t>
+  </si>
+  <si>
+    <t>AdditionalDownPayment</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"]')</t>
+  </si>
+  <si>
+    <t>TotalDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Profit Amount"]')</t>
+  </si>
+  <si>
+    <t>profitAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Fees"]')</t>
+  </si>
+  <si>
+    <t>TotalFees</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Contract Value"]')</t>
+  </si>
+  <si>
+    <t>TotalContractValue</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Tenure "]')</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Income"]')</t>
+  </si>
+  <si>
+    <t>TotalIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Obligations"]')</t>
+  </si>
+  <si>
+    <t>Totalobligation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Net Income"]')</t>
+  </si>
+  <si>
+    <t>TotalNetIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="No. of Installments"]')</t>
+  </si>
+  <si>
+    <t>NoOfInstallment</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Installment Frequency"]')</t>
+  </si>
+  <si>
+    <t>InstallmentFrequency</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="IRR"]')</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="APR"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Last Installment Amount"]')</t>
+  </si>
+  <si>
+    <t>LastInstallmentamount</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityType"]')</t>
+  </si>
+  <si>
+    <t>Eligibility_Type</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityAmt"]')</t>
+  </si>
+  <si>
+    <t>EligibilityAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligiblePercent"]')</t>
+  </si>
+  <si>
+    <t>EligibilityPercentage</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currency"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="actualPercent"]')</t>
+  </si>
+  <si>
+    <t>Actual_percentage</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="deviationLvl"]')</t>
+  </si>
+  <si>
+    <t>deviationLevel</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Accept Offer"]')</t>
+  </si>
+  <si>
+    <t>AcceptOffer</t>
+  </si>
+  <si>
+    <t>BackButton_screen</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[0]</t>
+  </si>
+  <si>
+    <t>OfferDetail_Verify</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-label')[0]</t>
+  </si>
+  <si>
+    <t>FinancialDetails_Verify</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[5]</t>
+  </si>
+  <si>
+    <t>CreditRiskFactor_verify</t>
+  </si>
+  <si>
+    <t>CreditScoreDetail_verify</t>
+  </si>
+  <si>
+    <t>EligibilityDetail_verify</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_verify</t>
+  </si>
+  <si>
+    <t>Installments_verify</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-label')[1]</t>
+  </si>
+  <si>
+    <t>AppealRequest_verify</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>InsuranceInfoElement</t>
+  </si>
+  <si>
+    <t>InsuranceInfoTab</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="insQtId"]')</t>
+  </si>
+  <si>
+    <t>InsuranceQuatationId</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="insuranceYear"]')</t>
+  </si>
+  <si>
+    <t>InsuranceYear</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="depPer"]')</t>
+  </si>
+  <si>
+    <t>Deprication</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="assetCost"]')</t>
+  </si>
+  <si>
+    <t>AssetPrice</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="actualInsRateFyear"]')</t>
+  </si>
+  <si>
+    <t>RatePerAsset</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="minPremium"]')</t>
+  </si>
+  <si>
+    <t>MiniumInsurancePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="actualPremium"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="vatOnFinalInsPremium"]')</t>
+  </si>
+  <si>
+    <t>VATPremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="netInsPremium"]')</t>
+  </si>
+  <si>
+    <t>NETPremium</t>
+  </si>
+  <si>
+    <t>NextButton</t>
+  </si>
+  <si>
+    <t>Eye_Button</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[class="btnNext ng-star-inserted"]')[1]</t>
+  </si>
+  <si>
+    <t>DocumentDetailTag</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="customerId"]')</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="documentId"]')</t>
+  </si>
+  <si>
+    <t>DocumentName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="requiredByStage"]')</t>
+  </si>
+  <si>
+    <t>RequiredAtStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="receivedStatus"]')</t>
+  </si>
+  <si>
+    <t>DocumentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isMandatory"]')</t>
+  </si>
+  <si>
+    <t>Mandatory_optional</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="documentClassId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="uploadDate"]')</t>
+  </si>
+  <si>
+    <t>UploadDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="expectedDateOfReceipt"]')</t>
+  </si>
+  <si>
+    <t>ExpectedReceiptDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="deferredToStage"]')</t>
+  </si>
+  <si>
+    <t>DefferalStage</t>
+  </si>
+  <si>
+    <t>DefApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="verifiedBy"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="documentApprovedBy"]')</t>
+  </si>
+  <si>
+    <t>ChangeinNatureApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="natureOfDocument"]')</t>
+  </si>
+  <si>
+    <t>DocumentForm</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="qualityStatus"]')</t>
+  </si>
+  <si>
+    <t>DocumentQuality</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="documentNumber"]')</t>
+  </si>
+  <si>
+    <t>DocumentRefNum</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="documentWith"]')</t>
+  </si>
+  <si>
+    <t>DocumentReceivedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="locationId"]')</t>
+  </si>
+  <si>
+    <t>LocationWhereReceived</t>
+  </si>
+  <si>
+    <t>RackNo</t>
+  </si>
+  <si>
+    <t>ShelfNo</t>
+  </si>
+  <si>
+    <t>BoxNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="expiryDate"]')</t>
+  </si>
+  <si>
+    <t>DateOfExpiry</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="lodgmentAmt"]')</t>
+  </si>
+  <si>
+    <t>LodgementAmount</t>
+  </si>
+  <si>
+    <t>BaseInsurancePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg14")</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg15")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2747,7 +3284,7 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2755,7 +3292,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2764,7 +3301,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2773,13 +3310,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2805,64 +3336,129 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="3"/>
-    <cellStyle name="Heading" xfId="4"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="5"/>
-    <cellStyle name="Heading1 1" xfId="6"/>
-    <cellStyle name="Heading1 2" xfId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="8"/>
-    <cellStyle name="Result 1" xfId="9"/>
-    <cellStyle name="Result 2" xfId="10"/>
-    <cellStyle name="Result2" xfId="11"/>
-    <cellStyle name="Result2 1" xfId="12"/>
-    <cellStyle name="Result2 2" xfId="13"/>
+  <cellStyles count="37">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="4"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="5"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="6"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="7"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="8"/>
+    <cellStyle name="Heading" xfId="9"/>
+    <cellStyle name="Heading1" xfId="10"/>
+    <cellStyle name="Heading1 1" xfId="11"/>
+    <cellStyle name="Heading1 2" xfId="12"/>
+    <cellStyle name="Heading1 3" xfId="13"/>
+    <cellStyle name="Heading1 4" xfId="14"/>
+    <cellStyle name="Heading1 5" xfId="15"/>
+    <cellStyle name="Heading1 6" xfId="16"/>
+    <cellStyle name="Heading1 7" xfId="17"/>
+    <cellStyle name="Heading1 8" xfId="18"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Result" xfId="19"/>
+    <cellStyle name="Result 1" xfId="20"/>
+    <cellStyle name="Result 2" xfId="21"/>
+    <cellStyle name="Result 3" xfId="22"/>
+    <cellStyle name="Result 4" xfId="23"/>
+    <cellStyle name="Result 5" xfId="24"/>
+    <cellStyle name="Result 6" xfId="25"/>
+    <cellStyle name="Result 7" xfId="26"/>
+    <cellStyle name="Result 8" xfId="27"/>
+    <cellStyle name="Result2" xfId="28"/>
+    <cellStyle name="Result2 1" xfId="29"/>
+    <cellStyle name="Result2 2" xfId="30"/>
+    <cellStyle name="Result2 3" xfId="31"/>
+    <cellStyle name="Result2 4" xfId="32"/>
+    <cellStyle name="Result2 5" xfId="33"/>
+    <cellStyle name="Result2 6" xfId="34"/>
+    <cellStyle name="Result2 7" xfId="35"/>
+    <cellStyle name="Result2 8" xfId="36"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2911,7 +3507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2944,26 +3540,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2996,23 +3575,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3155,1016 +3717,1013 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="48.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="120.9140625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="55.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="136.625" style="2" customWidth="1"/>
+    <col min="3" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>731</v>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="67.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="104.1640625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="76.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="117.625" style="2" customWidth="1"/>
+    <col min="3" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>348</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="1024" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="1024" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75">
+      <c r="A29" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.75">
       <c r="A36" t="s">
-        <v>795</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>348</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="4.014173228346456" bottom="4.014173228346456" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0" right="0" top="110.730708661417" bottom="110.730708661417" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -4173,221 +4732,223 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.58203125" customWidth="1"/>
-    <col min="3" max="1024" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="37.375" customWidth="1"/>
+    <col min="2" max="2" width="130" customWidth="1"/>
+    <col min="3" max="1024" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>797</v>
+        <v>844</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>798</v>
+        <v>845</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>809</v>
       </c>
       <c r="B4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" t="s">
-        <v>800</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>801</v>
+        <v>848</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
-        <v>802</v>
+        <v>849</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="3" t="s">
-        <v>804</v>
+        <v>851</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="3" t="s">
-        <v>806</v>
+        <v>853</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="3" t="s">
-        <v>808</v>
+        <v>855</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="3" t="s">
-        <v>810</v>
+        <v>857</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3" t="s">
-        <v>812</v>
+        <v>859</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>814</v>
+        <v>861</v>
       </c>
       <c r="B13" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>816</v>
+        <v>863</v>
       </c>
       <c r="B14" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>818</v>
+        <v>865</v>
       </c>
       <c r="B15" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>820</v>
+        <v>867</v>
       </c>
       <c r="B16" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>822</v>
+        <v>869</v>
       </c>
       <c r="B17" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="B18" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>826</v>
+        <v>873</v>
       </c>
       <c r="B19" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>828</v>
+        <v>875</v>
       </c>
       <c r="B20" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>830</v>
+        <v>877</v>
       </c>
       <c r="B21" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>832</v>
+        <v>879</v>
       </c>
       <c r="B22" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>834</v>
+        <v>881</v>
       </c>
       <c r="B23" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>836</v>
+        <v>883</v>
       </c>
       <c r="B24" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>838</v>
+        <v>885</v>
       </c>
       <c r="B25" t="s">
-        <v>839</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="123.88622047244094" bottom="123.88622047244094" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0" right="0" top="273.21929133858299" bottom="273.21929133858299" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -4396,277 +4957,279 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="1024" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="1024" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>841</v>
+        <v>888</v>
       </c>
       <c r="B2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>795</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>843</v>
+        <v>890</v>
       </c>
       <c r="B4" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>845</v>
+        <v>892</v>
       </c>
       <c r="B5" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>847</v>
+        <v>894</v>
       </c>
       <c r="B6" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>849</v>
+        <v>896</v>
       </c>
       <c r="B7" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>851</v>
+        <v>898</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>853</v>
+        <v>900</v>
       </c>
       <c r="B9" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>855</v>
+        <v>902</v>
       </c>
       <c r="B10" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>857</v>
+        <v>904</v>
       </c>
       <c r="B11" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>859</v>
+        <v>906</v>
       </c>
       <c r="B12" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>861</v>
+        <v>908</v>
       </c>
       <c r="B13" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>863</v>
+        <v>910</v>
       </c>
       <c r="B14" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>865</v>
+        <v>912</v>
       </c>
       <c r="B15" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>867</v>
+        <v>914</v>
       </c>
       <c r="B16" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>869</v>
+        <v>916</v>
       </c>
       <c r="B17" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>871</v>
+        <v>918</v>
       </c>
       <c r="B18" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>873</v>
+        <v>920</v>
       </c>
       <c r="B19" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>875</v>
+        <v>922</v>
       </c>
       <c r="B20" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>877</v>
+        <v>924</v>
       </c>
       <c r="B21" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>879</v>
+        <v>926</v>
       </c>
       <c r="B22" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>881</v>
+        <v>928</v>
       </c>
       <c r="B23" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>883</v>
+        <v>930</v>
       </c>
       <c r="B24" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>885</v>
+        <v>932</v>
       </c>
       <c r="B25" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
       <c r="A28" t="s">
-        <v>795</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>887</v>
+        <v>934</v>
       </c>
       <c r="B29" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>889</v>
+        <v>936</v>
       </c>
       <c r="B30" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>891</v>
+        <v>938</v>
       </c>
       <c r="B31" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>893</v>
+        <v>940</v>
       </c>
       <c r="B32" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.713779527559055" bottom="1.713779527559055" header="0.78740157480314954" footer="0.78740157480314954"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="51.326377952755898" bottom="51.326377952755898" header="0.78740157480314998" footer="0.78740157480314998"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10&amp;K000000Page &amp;P</oddFooter>
@@ -4674,2881 +5237,3710 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD21"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="48.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="103.25" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>942</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>953</v>
+      </c>
+      <c r="B6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>955</v>
+      </c>
+      <c r="B7" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>957</v>
+      </c>
+      <c r="B8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>959</v>
+      </c>
+      <c r="B9" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>961</v>
+      </c>
+      <c r="B10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>963</v>
+      </c>
+      <c r="B11" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>965</v>
+      </c>
+      <c r="B12" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>967</v>
+      </c>
+      <c r="B13" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>969</v>
+      </c>
+      <c r="B14" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>971</v>
+      </c>
+      <c r="B15" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>973</v>
+      </c>
+      <c r="B16" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>974</v>
+      </c>
+      <c r="B17" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>977</v>
+      </c>
+      <c r="B18" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>979</v>
+      </c>
+      <c r="B19" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>981</v>
+      </c>
+      <c r="B20" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>983</v>
+      </c>
+      <c r="B21" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>741</v>
+      </c>
+      <c r="B22" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>986</v>
+      </c>
+      <c r="B23" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>988</v>
+      </c>
+      <c r="B24" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>990</v>
+      </c>
+      <c r="B25" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>991</v>
+      </c>
+      <c r="B26" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>993</v>
+      </c>
+      <c r="B27" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>995</v>
+      </c>
+      <c r="B28" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B32" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>900</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B19" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B20" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B21" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>617</v>
+      </c>
+      <c r="B24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="54.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="116.5" style="2" customWidth="1"/>
+    <col min="3" max="1024" width="15.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.875" style="2" customWidth="1"/>
+    <col min="2" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.9140625" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.25" style="2" customWidth="1"/>
+    <col min="2" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>326</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>326</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:B75"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="149.58203125" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="74.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="168.875" style="2" customWidth="1"/>
+    <col min="3" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B49" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="B68" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B72" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B74" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>486</v>
       </c>
     </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="41" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.25" style="2" customWidth="1"/>
+    <col min="2" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>654</v>
       </c>
     </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1024" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>668</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="9.0555118110236243" bottom="9.0555118110236243" header="8.6618110236220485" footer="8.6618110236220485"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="21240" windowHeight="5040" tabRatio="911" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,15 @@
     <sheet name="tawa_offering_js" sheetId="15" r:id="rId15"/>
     <sheet name="Tawa_Commodity_InsuranceInfo" sheetId="16" r:id="rId16"/>
     <sheet name="Tawa_commodity_documentDetail" sheetId="17" r:id="rId17"/>
+    <sheet name="Mura_offering_documentDetail" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1:B28"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1089">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -170,7 +172,7 @@
     <t>search_button_for_employment_det</t>
   </si>
   <si>
-    <t>(document.querySelectorAll('button[ng-reflect-text="Search"]'))[1]</t>
+    <t xml:space="preserve">document.querySelectorAll('button[ng-reflect-text="Search"]')[1] </t>
   </si>
   <si>
     <t>search_box_search_text</t>
@@ -203,6 +205,42 @@
     <t>document.querySelector('button[label="Submit"]')</t>
   </si>
   <si>
+    <t>searchButtonUnderTab</t>
+  </si>
+  <si>
+    <t>Edit_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>Eye_Button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>list_view_search_result</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-grid p-paginator[ng-reflect-rows="5"] span[class="p-paginator-current ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>list_view_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>list_view_search_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>search_listView</t>
+  </si>
+  <si>
     <t>Ijarah_AddressDetailsFieldName</t>
   </si>
   <si>
@@ -1316,21 +1354,12 @@
     <t>customer_details_list_view_search_result</t>
   </si>
   <si>
-    <t>document.querySelector('ion-grid p-paginator[ng-reflect-rows="5"] span[class="p-paginator-current ng-star-inserted"]').innerText</t>
-  </si>
-  <si>
     <t>customer_details_list_view_search_button</t>
   </si>
   <si>
-    <t>document.querySelector('button[icon="pi pi-search"]')</t>
-  </si>
-  <si>
     <t>customer_details_list_view_search_input</t>
   </si>
   <si>
-    <t>document.querySelector('input[mode="ios"]')</t>
-  </si>
-  <si>
     <t>customer_details_export_button</t>
   </si>
   <si>
@@ -1652,9 +1681,6 @@
     <t>ActionBotton</t>
   </si>
   <si>
-    <t>document.querySelector('button[icon="pi pi-eye"]')</t>
-  </si>
-  <si>
     <t>PrimaryEmployment</t>
   </si>
   <si>
@@ -2297,9 +2323,6 @@
     <t>document.querySelector("#ion-overlay-57 &gt; ion-select-popover &gt; ion-list &gt; ion-radio-group &gt; ion-item:nth-child(2) &gt; ion-radio").shadowRoot.querySelector("#ion-rb-800")</t>
   </si>
   <si>
-    <t>Edit_button</t>
-  </si>
-  <si>
     <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
   </si>
   <si>
@@ -2861,366 +2884,366 @@
     <t>OfferDetailsElement</t>
   </si>
   <si>
-    <t>searchButtonUnderTab</t>
+    <t>AmountRequest</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"]')</t>
   </si>
   <si>
-    <t>AmountRequest</t>
-  </si>
-  <si>
     <t>DownPaymentPercentage</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"]')</t>
   </si>
   <si>
+    <t>DownPaymentAmount</t>
+  </si>
+  <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Amount"]')</t>
   </si>
   <si>
-    <t>DownPaymentAmount</t>
+    <t>AdditionalDownPayment</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Additional Down payment"]')</t>
   </si>
   <si>
-    <t>AdditionalDownPayment</t>
+    <t>TotalDownPaymentAmount</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"]')</t>
   </si>
   <si>
-    <t>TotalDownPaymentAmount</t>
+    <t>profitAmount</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Profit Amount"]')</t>
   </si>
   <si>
-    <t>profitAmount</t>
+    <t>TotalFees</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Total Fees"]')</t>
   </si>
   <si>
-    <t>TotalFees</t>
+    <t>TotalContractValue</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Total Contract Value"]')</t>
   </si>
   <si>
-    <t>TotalContractValue</t>
+    <t>Tenure</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Tenure "]')</t>
   </si>
   <si>
-    <t>Tenure</t>
+    <t>TotalIncome</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Total Income"]')</t>
   </si>
   <si>
-    <t>TotalIncome</t>
+    <t>Totalobligation</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Total Obligations"]')</t>
   </si>
   <si>
-    <t>Totalobligation</t>
+    <t>TotalNetIncome</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Total Net Income"]')</t>
   </si>
   <si>
-    <t>TotalNetIncome</t>
+    <t>NoOfInstallment</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="No. of Installments"]')</t>
   </si>
   <si>
-    <t>NoOfInstallment</t>
+    <t>InstallmentFrequency</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Installment Frequency"]')</t>
   </si>
   <si>
-    <t>InstallmentFrequency</t>
+    <t>IRR</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="IRR"]')</t>
   </si>
   <si>
-    <t>IRR</t>
-  </si>
-  <si>
     <t>APR</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="APR"]')</t>
   </si>
   <si>
+    <t>LastInstallmentamount</t>
+  </si>
+  <si>
     <t>document.querySelector('digital-text-box[ng-reflect-title="Last Installment Amount"]')</t>
   </si>
   <si>
-    <t>LastInstallmentamount</t>
+    <t>Eligibility_Type</t>
   </si>
   <si>
     <t>document.querySelector('th[ng-reflect-field="eligibilityType"]')</t>
   </si>
   <si>
-    <t>Eligibility_Type</t>
+    <t>EligibilityAmount</t>
   </si>
   <si>
     <t>document.querySelector('th[ng-reflect-field="eligibilityAmt"]')</t>
   </si>
   <si>
-    <t>EligibilityAmount</t>
+    <t>EligibilityPercentage</t>
   </si>
   <si>
     <t>document.querySelector('th[ng-reflect-field="eligiblePercent"]')</t>
   </si>
   <si>
-    <t>EligibilityPercentage</t>
-  </si>
-  <si>
     <t>document.querySelector('th[ng-reflect-field="currency"]')</t>
   </si>
   <si>
+    <t>Actual_percentage</t>
+  </si>
+  <si>
     <t>document.querySelector('th[ng-reflect-field="actualPercent"]')</t>
   </si>
   <si>
-    <t>Actual_percentage</t>
+    <t>deviationLevel</t>
   </si>
   <si>
     <t>document.querySelector('th[ng-reflect-field="deviationLvl"]')</t>
   </si>
   <si>
-    <t>deviationLevel</t>
+    <t>AcceptOffer</t>
   </si>
   <si>
     <t>document.querySelector('button[ng-reflect-text="Accept Offer"]')</t>
   </si>
   <si>
-    <t>AcceptOffer</t>
-  </si>
-  <si>
     <t>BackButton_screen</t>
   </si>
   <si>
+    <t>OfferDetail_Verify</t>
+  </si>
+  <si>
     <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[0]</t>
   </si>
   <si>
-    <t>OfferDetail_Verify</t>
+    <t>FinancialDetails_Verify</t>
   </si>
   <si>
     <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-label')[0]</t>
   </si>
   <si>
-    <t>FinancialDetails_Verify</t>
+    <t>CreditRiskFactor_verify</t>
   </si>
   <si>
     <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[1]</t>
   </si>
   <si>
+    <t>CreditScoreDetail_verify</t>
+  </si>
+  <si>
     <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[2]</t>
   </si>
   <si>
+    <t>EligibilityDetail_verify</t>
+  </si>
+  <si>
     <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[3]</t>
   </si>
   <si>
+    <t>InterestRateStructure_verify</t>
+  </si>
+  <si>
     <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[4]</t>
   </si>
   <si>
+    <t>Installments_verify</t>
+  </si>
+  <si>
     <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-title')[5]</t>
   </si>
   <si>
-    <t>CreditRiskFactor_verify</t>
-  </si>
-  <si>
-    <t>CreditScoreDetail_verify</t>
-  </si>
-  <si>
-    <t>EligibilityDetail_verify</t>
-  </si>
-  <si>
-    <t>InterestRateStructure_verify</t>
-  </si>
-  <si>
-    <t>Installments_verify</t>
+    <t>AppealRequest_verify</t>
   </si>
   <si>
     <t>document.querySelectorAll('div[class="dynsectiontitles"] ion-label')[1]</t>
   </si>
   <si>
-    <t>AppealRequest_verify</t>
-  </si>
-  <si>
-    <t>document.querySelector('button[ng-reflect-text="Edit"]')</t>
-  </si>
-  <si>
     <t>InsuranceInfoElement</t>
   </si>
   <si>
     <t>InsuranceInfoTab</t>
   </si>
   <si>
+    <t>document.querySelector("#seg14")</t>
+  </si>
+  <si>
+    <t>NextButton</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[class="btnNext ng-star-inserted"]')[1]</t>
+  </si>
+  <si>
+    <t>InsuranceQuatationId</t>
+  </si>
+  <si>
     <t>document.querySelector('digital-select-layout[ng-reflect-name="insQtId"]')</t>
   </si>
   <si>
-    <t>InsuranceQuatationId</t>
+    <t>InsuranceYear</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="insuranceYear"]')</t>
   </si>
   <si>
-    <t>InsuranceYear</t>
+    <t>Deprication</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="depPer"]')</t>
   </si>
   <si>
-    <t>Deprication</t>
+    <t>AssetPrice</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="assetCost"]')</t>
   </si>
   <si>
-    <t>AssetPrice</t>
+    <t>RatePerAsset</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="actualInsRateFyear"]')</t>
   </si>
   <si>
-    <t>RatePerAsset</t>
+    <t>MiniumInsurancePremium</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="minPremium"]')</t>
   </si>
   <si>
-    <t>MiniumInsurancePremium</t>
+    <t>BaseInsurancePremium</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="actualPremium"]')</t>
   </si>
   <si>
+    <t>VATPremium</t>
+  </si>
+  <si>
     <t>document.querySelector('digital-text-box[id="vatOnFinalInsPremium"]')</t>
   </si>
   <si>
-    <t>VATPremium</t>
+    <t>NETPremium</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="netInsPremium"]')</t>
   </si>
   <si>
-    <t>NETPremium</t>
-  </si>
-  <si>
-    <t>NextButton</t>
-  </si>
-  <si>
-    <t>Eye_Button</t>
-  </si>
-  <si>
-    <t>document.querySelectorAll('button[class="btnNext ng-star-inserted"]')[1]</t>
-  </si>
-  <si>
     <t>DocumentDetailTag</t>
   </si>
   <si>
+    <t>document.querySelector("#seg15")</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
     <t>document.querySelector('digital-select-layout[id="customerId"]')</t>
   </si>
   <si>
-    <t>CustomerName</t>
+    <t>DocumentName</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="documentId"]')</t>
   </si>
   <si>
-    <t>DocumentName</t>
+    <t>RequiredAtStage</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="requiredByStage"]')</t>
   </si>
   <si>
-    <t>RequiredAtStage</t>
+    <t>DocumentStatus</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="receivedStatus"]')</t>
   </si>
   <si>
-    <t>DocumentStatus</t>
+    <t>Mandatory_optional</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="isMandatory"]')</t>
   </si>
   <si>
-    <t>Mandatory_optional</t>
-  </si>
-  <si>
     <t>document.querySelector('digital-select-layout[id="documentClassId"]')</t>
   </si>
   <si>
+    <t>UploadDate</t>
+  </si>
+  <si>
     <t>document.querySelector('digital-prime-date[id="uploadDate"]')</t>
   </si>
   <si>
-    <t>UploadDate</t>
+    <t>ExpectedReceiptDate</t>
   </si>
   <si>
     <t>document.querySelector('digital-prime-date[id="expectedDateOfReceipt"]')</t>
   </si>
   <si>
-    <t>ExpectedReceiptDate</t>
+    <t>DefferalStage</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="deferredToStage"]')</t>
   </si>
   <si>
-    <t>DefferalStage</t>
-  </si>
-  <si>
     <t>DefApprovedBy</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="verifiedBy"]')</t>
   </si>
   <si>
+    <t>ChangeinNatureApprovedBy</t>
+  </si>
+  <si>
     <t>document.querySelector('digital-select-layout[id="documentApprovedBy"]')</t>
   </si>
   <si>
-    <t>ChangeinNatureApprovedBy</t>
+    <t>DocumentForm</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="natureOfDocument"]')</t>
   </si>
   <si>
-    <t>DocumentForm</t>
+    <t>DocumentQuality</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="qualityStatus"]')</t>
   </si>
   <si>
-    <t>DocumentQuality</t>
+    <t>DocumentRefNum</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="documentNumber"]')</t>
   </si>
   <si>
-    <t>DocumentRefNum</t>
+    <t>DocumentReceivedBy</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="documentWith"]')</t>
   </si>
   <si>
-    <t>DocumentReceivedBy</t>
+    <t>LocationWhereReceived</t>
   </si>
   <si>
     <t>document.querySelector('digital-select-layout[id="locationId"]')</t>
   </si>
   <si>
-    <t>LocationWhereReceived</t>
-  </si>
-  <si>
     <t>RackNo</t>
   </si>
   <si>
@@ -3230,36 +3253,67 @@
     <t>BoxNo</t>
   </si>
   <si>
+    <t>DateOfExpiry</t>
+  </si>
+  <si>
     <t>document.querySelector('digital-prime-date[id="expiryDate"]')</t>
   </si>
   <si>
-    <t>DateOfExpiry</t>
+    <t>LodgementAmount</t>
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="lodgmentAmt"]')</t>
   </si>
   <si>
-    <t>LodgementAmount</t>
-  </si>
-  <si>
-    <t>BaseInsurancePremium</t>
-  </si>
-  <si>
-    <t>document.querySelector("#seg14")</t>
-  </si>
-  <si>
-    <t>document.querySelector("#seg15")</t>
+    <t>DocumentDetailsElement</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg13")</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="documentId"]')</t>
+  </si>
+  <si>
+    <t>Pre_Back_Button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>Help_Button</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-buttons[ng-reflect-json-name="Document_Form_01"] ion-button')</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[ng-reflect-ng-class="p-button-icon p-button-icon-le"]')</t>
+  </si>
+  <si>
+    <t>backButton_verify</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-table[ng-reflect-data-key="id"]')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-4009]General"/>
-    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-4009]General"/>
+    <numFmt numFmtId="181" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3277,6 +3331,157 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3313,7 +3518,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3326,8 +3531,194 @@
         <bgColor rgb="FF0084D1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3335,126 +3726,415 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
-    <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
-    <cellStyle name="Excel Built-in Heading 1 2" xfId="4"/>
-    <cellStyle name="Excel Built-in Heading 1 3" xfId="5"/>
-    <cellStyle name="Excel Built-in Heading 1 4" xfId="6"/>
-    <cellStyle name="Excel Built-in Heading 1 5" xfId="7"/>
-    <cellStyle name="Excel Built-in Heading 1 6" xfId="8"/>
-    <cellStyle name="Heading" xfId="9"/>
-    <cellStyle name="Heading1" xfId="10"/>
-    <cellStyle name="Heading1 1" xfId="11"/>
-    <cellStyle name="Heading1 2" xfId="12"/>
-    <cellStyle name="Heading1 3" xfId="13"/>
-    <cellStyle name="Heading1 4" xfId="14"/>
-    <cellStyle name="Heading1 5" xfId="15"/>
-    <cellStyle name="Heading1 6" xfId="16"/>
-    <cellStyle name="Heading1 7" xfId="17"/>
-    <cellStyle name="Heading1 8" xfId="18"/>
+  <cellStyles count="85">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Result" xfId="19"/>
-    <cellStyle name="Result 1" xfId="20"/>
-    <cellStyle name="Result 2" xfId="21"/>
-    <cellStyle name="Result 3" xfId="22"/>
-    <cellStyle name="Result 4" xfId="23"/>
-    <cellStyle name="Result 5" xfId="24"/>
-    <cellStyle name="Result 6" xfId="25"/>
-    <cellStyle name="Result 7" xfId="26"/>
-    <cellStyle name="Result 8" xfId="27"/>
-    <cellStyle name="Result2" xfId="28"/>
-    <cellStyle name="Result2 1" xfId="29"/>
-    <cellStyle name="Result2 2" xfId="30"/>
-    <cellStyle name="Result2 3" xfId="31"/>
-    <cellStyle name="Result2 4" xfId="32"/>
-    <cellStyle name="Result2 5" xfId="33"/>
-    <cellStyle name="Result2 6" xfId="34"/>
-    <cellStyle name="Result2 7" xfId="35"/>
-    <cellStyle name="Result2 8" xfId="36"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="49"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="50"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="51"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="52"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="53"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="54"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="55"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="56"/>
+    <cellStyle name="Heading" xfId="57"/>
+    <cellStyle name="Heading1" xfId="58"/>
+    <cellStyle name="Heading1 1" xfId="59"/>
+    <cellStyle name="Heading1 2" xfId="60"/>
+    <cellStyle name="Heading1 3" xfId="61"/>
+    <cellStyle name="Heading1 4" xfId="62"/>
+    <cellStyle name="Heading1 5" xfId="63"/>
+    <cellStyle name="Heading1 6" xfId="64"/>
+    <cellStyle name="Heading1 7" xfId="65"/>
+    <cellStyle name="Heading1 8" xfId="66"/>
+    <cellStyle name="Result" xfId="67"/>
+    <cellStyle name="Result 1" xfId="68"/>
+    <cellStyle name="Result 2" xfId="69"/>
+    <cellStyle name="Result 3" xfId="70"/>
+    <cellStyle name="Result 4" xfId="71"/>
+    <cellStyle name="Result 5" xfId="72"/>
+    <cellStyle name="Result 6" xfId="73"/>
+    <cellStyle name="Result 7" xfId="74"/>
+    <cellStyle name="Result 8" xfId="75"/>
+    <cellStyle name="Result2" xfId="76"/>
+    <cellStyle name="Result2 1" xfId="77"/>
+    <cellStyle name="Result2 2" xfId="78"/>
+    <cellStyle name="Result2 3" xfId="79"/>
+    <cellStyle name="Result2 4" xfId="80"/>
+    <cellStyle name="Result2 5" xfId="81"/>
+    <cellStyle name="Result2 6" xfId="82"/>
+    <cellStyle name="Result2 7" xfId="83"/>
+    <cellStyle name="Result2 8" xfId="84"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3716,17 +4396,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
@@ -3796,19 +4478,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="55.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="136.625" style="2" customWidth="1"/>
@@ -3817,7 +4502,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3825,23 +4510,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
@@ -3849,276 +4534,277 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>755</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="76.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="117.625" style="2" customWidth="1"/>
@@ -4127,7 +4813,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4135,266 +4821,266 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4407,305 +5093,308 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="1024" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" ht="15.75" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -4713,12 +5402,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75">
+    <row r="36" ht="15.75" spans="1:2">
       <c r="A36" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4732,23 +5421,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37.375" customWidth="1"/>
     <col min="2" max="2" width="130" customWidth="1"/>
     <col min="3" max="1024" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4756,198 +5446,198 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B4" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:2">
       <c r="A5" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:2">
       <c r="A7" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="B13" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="B14" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="B15" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="B16" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="B17" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="B18" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="B19" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="B20" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="B21" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B22" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="B23" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="B24" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="B25" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="273.21929133858299" bottom="273.21929133858299" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="273.219291338583" bottom="273.219291338583" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -4957,23 +5647,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="34.375" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="1024" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4981,254 +5672,254 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="B2" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:2">
       <c r="A3" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="B4" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="B5" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="B6" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="B7" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="B8" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="B9" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="B10" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="B11" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="B12" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="B13" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="B14" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="B15" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="B16" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="B17" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="B18" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="B19" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="B20" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="B21" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="B22" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="B23" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="B24" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="B25" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:2">
       <c r="A28" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="B29" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="B30" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="B31" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="B32" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="51.326377952755898" bottom="51.326377952755898" header="0.78740157480314998" footer="0.78740157480314998"/>
+  <pageMargins left="0.78740157480315" right="0.78740157480315" top="51.3263779527559" bottom="51.3263779527559" header="0.78740157480315" footer="0.78740157480315"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
@@ -5238,22 +5929,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.125" customWidth="1"/>
     <col min="2" max="2" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5261,289 +5953,291 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="B2" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="B3" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="B4" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="B5" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="B6" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="B7" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="B8" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="B9" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="B10" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="B11" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="B12" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="B13" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="B14" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="B15" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="B16" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="B17" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="B18" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="B19" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="B20" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="B21" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="B22" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="B23" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="B24" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="B25" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B26" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="B27" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="B28" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B29" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B30" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B31" t="s">
-        <v>998</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B32" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B33" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="B34" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P36" sqref="P35:P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5551,111 +6245,115 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="B2" t="s">
-        <v>1071</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B4" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="B5" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="B6" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B7" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="B8" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="B9" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1070</v>
+        <v>1031</v>
       </c>
       <c r="B10" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B11" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="B12" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5663,202 +6361,456 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="B2" t="s">
-        <v>1072</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B3" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B4" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B5" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B6" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="B7" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="B8" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B9" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="B10" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="B11" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="B12" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="B13" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B14" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="B15" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="B16" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="B17" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="B18" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="B19" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="B20" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="B21" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B22" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="B23" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B19" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B20" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B21" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>625</v>
+      </c>
+      <c r="B24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B26" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="54.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="116.5" style="2" customWidth="1"/>
@@ -6035,7 +6987,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>943</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -6043,34 +6995,69 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>755</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1008</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>1029</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>540</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37.875" style="2" customWidth="1"/>
     <col min="2" max="1024" width="15.625" style="2" customWidth="1"/>
@@ -6078,7 +7065,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6086,377 +7073,380 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6464,466 +7454,469 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="38.25" style="2" customWidth="1"/>
     <col min="2" max="1024" width="15.625" style="2" customWidth="1"/>
@@ -6931,7 +7924,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6939,305 +7932,308 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7245,92 +8241,93 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:B75"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="74.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="168.875" style="2" customWidth="1"/>
@@ -7339,7 +8336,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7347,391 +8344,391 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>428</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>430</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>432</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>40</v>
@@ -7739,7 +8736,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>38</v>
@@ -7747,191 +8744,191 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>24</v>
@@ -7939,236 +8936,237 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="46.25" style="2" customWidth="1"/>
     <col min="2" max="1024" width="15.625" style="2" customWidth="1"/>
@@ -8176,7 +9174,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8184,699 +9182,700 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>540</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1024" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8884,7 +9883,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -8892,54 +9891,54 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.4181102362205" bottom="11.4181102362205" header="11.0244094488189" footer="11.0244094488189"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Tawa_Commodity_InsuranceInfo" sheetId="16" r:id="rId16"/>
     <sheet name="Tawa_commodity_documentDetail" sheetId="17" r:id="rId17"/>
     <sheet name="Mura_offering_documentDetail" sheetId="18" r:id="rId18"/>
+    <sheet name="Tawa_Check_QuotationInfo" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">iJarah_CommonElements!$A$1:$B$28</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1230">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -690,9 +692,6 @@
     <t>green_card_issue_date_mandatory_verification</t>
   </si>
   <si>
-    <t>document.querySelector('digital-prime-date[ng-reflect-title="Green Card Issue Date"] ion-label').innerText</t>
-  </si>
-  <si>
     <t>green_card_issue_date_calendar</t>
   </si>
   <si>
@@ -2223,9 +2222,6 @@
     <t>DeclaredPropertyValue</t>
   </si>
   <si>
-    <t>document.querySelector("#assetPrice &gt; div &gt; div &gt; ion-item")</t>
-  </si>
-  <si>
     <t>DeclaredDownPaymentAmount</t>
   </si>
   <si>
@@ -3462,9 +3458,6 @@
     <t>Backbutton_fun_verify</t>
   </si>
   <si>
-    <t>document.querySelector('page-composer-parser[ng-reflect-screen-name="CustomerDetails_SCREEN"] ion-title')</t>
-  </si>
-  <si>
     <t>document.querySelector('digital-text-box[ng-reflect-name="noCyclinders"] ion-item')</t>
   </si>
   <si>
@@ -3532,6 +3525,207 @@
   </si>
   <si>
     <t>document.querySelector('digital-prime-date[ng-reflect-title="Year of Manufacture"] label').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Asset Price.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>asset_price</t>
+  </si>
+  <si>
+    <t>down_payment</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Down Payment.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>down_payment_percentage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Down Payment Percentage.TOOLTI"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Green Card Issue Date"]')</t>
+  </si>
+  <si>
+    <t>green_card_issue_date</t>
+  </si>
+  <si>
+    <t>residual_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Residual Value.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Green Card No.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>green_card_number</t>
+  </si>
+  <si>
+    <t>weight_in_tons</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Weight (in tons).TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Mileage.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>mileage</t>
+  </si>
+  <si>
+    <t>country_of_manufacture</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Country of Manufacturing.TOOLT"]')</t>
+  </si>
+  <si>
+    <t>asset_agreed_fulfilment_location</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Asset Agreed Fulfilment Locati"]')</t>
+  </si>
+  <si>
+    <t>location_of_signing</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Location of Signing the Agreem"]')</t>
+  </si>
+  <si>
+    <t>asset_received_location</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Asset Received Location.TOOLTI"]')</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="Green Card Issue Date"] label').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment"] +div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>downpayment_fieldError_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[class="pl-2 pr-2 ion-color ion-color-dark md title-default hydrated"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.MODULE.FACILITY_DETAILS.PR"]')</t>
+  </si>
+  <si>
+    <t>search_button_for_record</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-search"]')[1]</t>
+  </si>
+  <si>
+    <t>QuotationInfoElement</t>
+  </si>
+  <si>
+    <t>Quotation Info</t>
+  </si>
+  <si>
+    <t>document.querySelector("ion-segment-button[id='seg9']")</t>
+  </si>
+  <si>
+    <t>View Button</t>
+  </si>
+  <si>
+    <t>document.querySelector("button[ng-reflect-text='View']")</t>
+  </si>
+  <si>
+    <t>GoBack Button</t>
+  </si>
+  <si>
+    <t>document.querySelector("button[ng-reflect-text='Go Back']")</t>
+  </si>
+  <si>
+    <t>InsuranceCompanyBpId</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="insuranceCompanyBpId"]')</t>
+  </si>
+  <si>
+    <t>BasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="basePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>VatOnBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="vatOnBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>NetBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>totalDiscountAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalDiscountAmount"]')</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="Expiry Date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>QuoteReferenceNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="quoteReferenceNo"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector("ion-title")</t>
+  </si>
+  <si>
+    <t>backButton_fun_verify</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Deductible Amount"]')</t>
+  </si>
+  <si>
+    <t>DeductibleAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Gross Premium Amount"]')</t>
+  </si>
+  <si>
+    <t>GrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Vat On Gross Premium Amount"]')</t>
+  </si>
+  <si>
+    <t>VatOnGrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Net Gross Premium Amount"]')</t>
+  </si>
+  <si>
+    <t>NetGrossPremiumAmount</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"]')</t>
+  </si>
+  <si>
+    <t>LoanTenure_data</t>
   </si>
 </sst>
 </file>
@@ -4087,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4102,7 +4296,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4110,23 +4304,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
@@ -4134,258 +4328,274 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>729</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>754</v>
+        <v>1229</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>477</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>762</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>313</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>767</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
   </sheetData>
@@ -4397,10 +4607,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ36"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4412,7 +4622,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4420,63 +4630,63 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>60</v>
@@ -4484,202 +4694,202 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4692,10 +4902,34 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -4707,9 +4941,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
@@ -4720,7 +4956,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4728,63 +4964,63 @@
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>60</v>
@@ -4792,202 +5028,202 @@
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
       <c r="A26" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
       <c r="A28" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75">
       <c r="A32" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75">
       <c r="A34" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75">
@@ -5000,10 +5236,26 @@
     </row>
     <row r="36" spans="1:2" ht="15.75">
       <c r="A36" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -5033,7 +5285,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5041,7 +5293,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -5049,186 +5301,186 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B14" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B15" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B16" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B17" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B18" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B19" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B20" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B21" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B22" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B23" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B24" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B25" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -5258,7 +5510,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5266,250 +5518,250 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B9" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B10" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B14" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B16" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B17" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B19" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B20" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B21" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B22" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B23" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B24" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B25" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
       <c r="A26" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
       <c r="A28" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B29" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B30" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B31" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B32" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -5538,7 +5790,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5546,338 +5798,338 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B8" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B10" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B12" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B13" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B14" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B16" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B17" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B18" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B19" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B20" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B22" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B23" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B24" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B25" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B26" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B27" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B28" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B29" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B30" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B31" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B32" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B33" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B34" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B35" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B36" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B37" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B39" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B40" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B41" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B42" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B43" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -5887,10 +6139,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P35:P36"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5900,7 +6152,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5908,90 +6160,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B3" t="s">
         <v>1019</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B8" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B9" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B12" t="s">
-        <v>1017</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -6004,7 +6264,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B24"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6014,7 +6274,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6022,186 +6282,186 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B6" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B8" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B10" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B12" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B14" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B16" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B18" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B20" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B22" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B23" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -6213,8 +6473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6224,7 +6484,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6232,226 +6492,373 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B6" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B8" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B10" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B12" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B14" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B16" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B18" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B20" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B22" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B23" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B25" t="s">
         <v>1071</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B26" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B27" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B28" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B29" t="s">
-        <v>1074</v>
+        <v>1072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -6464,7 +6871,7 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6599,7 +7006,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6644,7 +7051,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -6652,47 +7059,47 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -6706,12 +7113,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ69"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6733,7 +7152,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6794,10 +7213,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6826,10 +7245,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6866,18 +7285,18 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6885,7 +7304,7 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6914,10 +7333,10 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6930,10 +7349,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6946,10 +7365,10 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6962,10 +7381,10 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6986,10 +7405,10 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7010,10 +7429,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7034,10 +7453,10 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7058,10 +7477,10 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7082,10 +7501,10 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7106,10 +7525,10 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7130,10 +7549,10 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7194,66 +7613,66 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1142</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -7281,10 +7700,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ66"/>
+  <dimension ref="A1:AMJ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7386,7 +7805,7 @@
         <v>163</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7439,10 +7858,10 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7455,10 +7874,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7479,10 +7898,10 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7503,10 +7922,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7514,7 +7933,7 @@
         <v>186</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7522,15 +7941,15 @@
         <v>187</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7538,7 +7957,7 @@
         <v>188</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7546,7 +7965,7 @@
         <v>189</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7567,10 +7986,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7583,10 +8002,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7607,10 +8026,10 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7623,10 +8042,10 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7647,178 +8066,290 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>205</v>
+        <v>1164</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>206</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>211</v>
+        <v>1165</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>212</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>217</v>
+        <v>1167</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>218</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>223</v>
+        <v>1170</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>224</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>226</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>229</v>
+        <v>1171</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>230</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>235</v>
+        <v>1174</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>236</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>241</v>
+        <v>1175</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>242</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>248</v>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -7842,7 +8373,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7850,7 +8381,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>144</v>
@@ -7858,199 +8389,199 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>60</v>
@@ -8058,74 +8589,74 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -8148,7 +8679,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8156,74 +8687,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -8237,8 +8768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ103"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8250,7 +8781,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8258,343 +8789,343 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>60</v>
@@ -8602,47 +9133,47 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>40</v>
@@ -8650,7 +9181,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>38</v>
@@ -8658,175 +9189,175 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>139</v>
@@ -8834,15 +9365,15 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>24</v>
@@ -8850,215 +9381,215 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>137</v>
@@ -9066,7 +9597,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="B103" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -9092,7 +9623,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -9100,674 +9631,674 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -9792,7 +10323,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -9800,7 +10331,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -9808,50 +10339,50 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1232">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3726,6 +3726,12 @@
   </si>
   <si>
     <t>LoanTenure_data</t>
+  </si>
+  <si>
+    <t>facility_Status</t>
+  </si>
+  <si>
+    <t>StatusCheck</t>
   </si>
 </sst>
 </file>
@@ -4281,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ38"/>
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4598,6 +4604,22 @@
         <v>1195</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.4181102362205" bottom="11.4181102362205" header="11.024409448818901" footer="11.024409448818901"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -4609,8 +4631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4926,10 +4948,10 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>522</v>
+        <v>1231</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>523</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4943,7 +4965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
@@ -8768,8 +8790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ103"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1241">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3732,6 +3732,33 @@
   </si>
   <si>
     <t>StatusCheck</t>
+  </si>
+  <si>
+    <t>neighbourhood_districtName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>neighbourhood_districtName_verify</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.DIST_NAME"] ion-input')</t>
+  </si>
+  <si>
+    <t>landlordMobileNumber_errorValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="Invalid_MOB"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg=\"VAL.ALPHANUMERIC.ALLOWED\"').innerText</t>
+  </si>
+  <si>
+    <t>ZIPCODE_error_validation</t>
   </si>
 </sst>
 </file>
@@ -4289,7 +4316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -4631,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6893,7 +6920,7 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7149,10 +7176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ69"/>
+  <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7323,394 +7350,434 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>573</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1101</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>1114</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>1114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1116</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>96</v>
+        <v>1116</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1118</v>
+        <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>1118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>1120</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>1120</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>1121</v>
+        <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>1121</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>1132</v>
+        <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>1132</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>1124</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>1124</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>113</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>1126</v>
+        <v>114</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>1126</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>1133</v>
+        <v>118</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>120</v>
+        <v>1133</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>1127</v>
+        <v>122</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>124</v>
+        <v>1127</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>1129</v>
+        <v>126</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>128</v>
+        <v>1129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>1099</v>
+        <v>140</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1098</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>1136</v>
+        <v>1103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1135</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>525</v>
+        <v>1137</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>465</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>1139</v>
+        <v>525</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1192</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>752</v>
+        <v>1139</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>753</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>29</v>
+        <v>752</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>30</v>
+        <v>753</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
@@ -8790,8 +8857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ103"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:B73"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="Tawa_commodity_documentDetail" sheetId="17" r:id="rId17"/>
     <sheet name="Mura_offering_documentDetail" sheetId="18" r:id="rId18"/>
     <sheet name="Tawa_Check_QuotationInfo" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">iJarah_CommonElements!$A$1:$B$28</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1245">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3759,6 +3758,18 @@
   </si>
   <si>
     <t>ZIPCODE_error_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_type</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfJoining"] p-calendar[inputid="icon"] button')</t>
+  </si>
+  <si>
+    <t>DateOfJoiningformat</t>
   </si>
 </sst>
 </file>
@@ -4314,10 +4325,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ40"/>
+  <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4529,121 +4540,129 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>749</v>
+        <v>1242</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>737</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1229</v>
+        <v>750</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>752</v>
+        <v>1229</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>476</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>760</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>312</v>
+        <v>762</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>765</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>1194</v>
+        <v>766</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1195</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>437</v>
+        <v>1194</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>438</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6920,7 +6939,7 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7162,24 +7181,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -9698,10 +9705,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ85"/>
+  <dimension ref="A1:AMJ86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F63" sqref="F62:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -10096,297 +10103,305 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>619</v>
+        <v>1244</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>620</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>691</v>
       </c>
     </row>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="15" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,9 @@
     <sheet name="Tawa_Commodity_InsuranceInfo" sheetId="16" r:id="rId17"/>
     <sheet name="Tawa_commodity_documentDetail" sheetId="17" r:id="rId18"/>
     <sheet name="Mura_offering_documentDetail" sheetId="18" r:id="rId19"/>
-    <sheet name="AL_MarginMoney_JSPath" sheetId="24" r:id="rId20"/>
-    <sheet name="Tawa_Check_QuotationInfo" sheetId="19" r:id="rId21"/>
-    <sheet name="PL_NawApp_CustomerDetail" sheetId="25" r:id="rId22"/>
-    <sheet name="AL_MM_JS" sheetId="26" r:id="rId23"/>
+    <sheet name="Tawa_Check_QuotationInfo" sheetId="19" r:id="rId20"/>
+    <sheet name="PL_NawApp_CustomerDetail" sheetId="25" r:id="rId21"/>
+    <sheet name="AL_MM_JS" sheetId="26" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">iJarah_CommonElements!$A$1:$B$28</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1383">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4082,9 +4081,6 @@
     <t>document.querySelector('digital-text-box[ng-reflect-name="remarks"] ion-textarea')</t>
   </si>
   <si>
-    <t>JSPaths</t>
-  </si>
-  <si>
     <t>dsb_margin_money_section</t>
   </si>
   <si>
@@ -4170,6 +4166,27 @@
   </si>
   <si>
     <t>searchCustomerTitle</t>
+  </si>
+  <si>
+    <t>FirstName_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_PREFERED_TIME_"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>PreferedTimeForContact_input</t>
+  </si>
+  <si>
+    <t>preferedTimeForContact_errormsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="VAL.ALPHABET.ALLOWED"]').innerText</t>
+  </si>
+  <si>
+    <t>FirstName_errormsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="Invalid_TIME_FORMAT"]').innerText</t>
   </si>
 </sst>
 </file>
@@ -6338,7 +6355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
@@ -7276,15 +7293,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B31" t="s">
         <v>1348</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B32" t="s">
         <v>144</v>
@@ -7292,58 +7309,58 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B33" t="s">
         <v>1351</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B34" t="s">
         <v>1353</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B35" t="s">
         <v>1355</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B36" t="s">
         <v>1357</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B37" t="s">
         <v>1359</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B38" t="s">
         <v>1361</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B39" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75">
@@ -7364,18 +7381,18 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B42" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B43" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7404,10 +7421,10 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B47" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -7664,167 +7681,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>477</v>
-      </c>
-      <c r="B15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7970,12 +7826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7986,7 +7842,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8058,10 +7914,10 @@
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B10" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
@@ -8090,10 +7946,10 @@
     </row>
     <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B14" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
@@ -8110,6 +7966,38 @@
       </c>
       <c r="B16" s="2" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -8117,11 +8005,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -8133,7 +8021,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8141,15 +8029,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B2" t="s">
         <v>1348</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B3" t="s">
         <v>144</v>
@@ -8157,58 +8045,58 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B4" t="s">
         <v>1351</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B5" t="s">
         <v>1353</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B6" t="s">
         <v>1355</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B7" t="s">
         <v>1357</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B8" t="s">
         <v>1359</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B9" t="s">
         <v>1361</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B10" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
@@ -8229,18 +8117,18 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B13" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B14" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8269,10 +8157,10 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B18" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -10814,8 +10702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:B54"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="13" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Tawa_Check_QuotationInfo" sheetId="19" r:id="rId20"/>
     <sheet name="PL_NawApp_CustomerDetail" sheetId="25" r:id="rId21"/>
     <sheet name="AL_MM_JS" sheetId="26" r:id="rId22"/>
+    <sheet name="AL_AppDataEn_ContactDetail" sheetId="27" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">iJarah_CommonElements!$A$1:$B$28</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1405">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2218,9 +2219,6 @@
     <t>RequestedAmount</t>
   </si>
   <si>
-    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"]')</t>
-  </si>
-  <si>
     <t>DeclaredPropertyValue</t>
   </si>
   <si>
@@ -2245,15 +2243,9 @@
     <t>RequestedAmount_mandy</t>
   </si>
   <si>
-    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"] span[class="redclr ng-star-inserted"')</t>
-  </si>
-  <si>
     <t>RequestedAmount_number</t>
   </si>
   <si>
-    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"] input')</t>
-  </si>
-  <si>
     <t>DeclaredDownPaymentAmount_mandy</t>
   </si>
   <si>
@@ -3739,12 +3731,6 @@
     <t>neighbourhood_districtName</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]+ion-input input')</t>
-  </si>
-  <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-select')</t>
-  </si>
-  <si>
     <t>neighbourhood_districtName_verify</t>
   </si>
   <si>
@@ -3763,9 +3749,6 @@
     <t>ZIPCODE_error_validation</t>
   </si>
   <si>
-    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"] p-inputnumber')</t>
-  </si>
-  <si>
     <t>RequestedAmount_type</t>
   </si>
   <si>
@@ -4187,6 +4170,90 @@
   </si>
   <si>
     <t>document.querySelector('digital-form-error[ng-reflect-msg="Invalid_TIME_FORMAT"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="requestedAmount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="requestedAmount"] span[class="redclr ng-star-inserted"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="requestedAmount"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="requestedAmount"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>ContactDeatils_FieldName</t>
+  </si>
+  <si>
+    <t>EmailType</t>
+  </si>
+  <si>
+    <t>Email_Id</t>
+  </si>
+  <si>
+    <t>PhoneType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="PhoneType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="PhoneNumber"] ion-input')</t>
+  </si>
+  <si>
+    <t>PhoneNumber_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="PhoneNumber"] ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="ConsentPhone"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="Contactmethod"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredtimeofcontact"] ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredtimeofcontact"] ion-input input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="EmailType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="Emailid"] ion-input')</t>
+  </si>
+  <si>
+    <t>Email_Id_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="Emailid"] ion-input input')</t>
+  </si>
+  <si>
+    <t>ConsentForPhoneContact</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="VAL.ALPHANUMERIC.ALLOWED"] ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>phoneNumber_errorMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="Invalid_TIME_FORMAT"] ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>preferedTime_errorMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="districtId"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector(' button[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t>year_of_manufacture_calendar_input_Today</t>
   </si>
 </sst>
 </file>
@@ -4836,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4948,164 +5015,164 @@
         <v>725</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>726</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>735</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>737</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1241</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>737</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>476</v>
@@ -5113,23 +5180,23 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>312</v>
@@ -5137,26 +5204,26 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5169,7 +5236,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>139</v>
@@ -5186,7 +5253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -5199,7 +5266,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5207,10 +5274,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5218,15 +5285,15 @@
         <v>704</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5234,36 +5301,36 @@
         <v>471</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>60</v>
@@ -5271,202 +5338,202 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5479,7 +5546,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>338</v>
@@ -5487,23 +5554,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>438</v>
@@ -5520,7 +5587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
@@ -5533,7 +5600,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5541,10 +5608,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -5552,15 +5619,15 @@
         <v>704</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
@@ -5568,36 +5635,36 @@
         <v>471</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>60</v>
@@ -5605,202 +5672,202 @@
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
       <c r="A26" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
       <c r="A28" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75">
       <c r="A32" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75">
       <c r="A34" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75">
@@ -5813,7 +5880,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75">
       <c r="A36" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>338</v>
@@ -5821,7 +5888,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75">
       <c r="A37" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>476</v>
@@ -5829,10 +5896,10 @@
     </row>
     <row r="38" spans="1:2" ht="15.75">
       <c r="A38" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -5849,7 +5916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -5862,7 +5929,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5870,7 +5937,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -5878,7 +5945,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B3" t="s">
         <v>528</v>
@@ -5886,15 +5953,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>465</v>
@@ -5902,7 +5969,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B6" t="s">
         <v>530</v>
@@ -5910,154 +5977,154 @@
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B13" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B14" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B15" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B16" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B17" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B18" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B19" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B20" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B21" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B22" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B23" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B24" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B25" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -6074,7 +6141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6087,7 +6154,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6095,15 +6162,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>338</v>
@@ -6111,178 +6178,178 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B4" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B6" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B7" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B8" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B9" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B11" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B12" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B13" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B14" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B15" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B16" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B17" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B18" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B19" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B20" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B21" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B22" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B23" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B24" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B25" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
@@ -6303,7 +6370,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75">
       <c r="A28" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>338</v>
@@ -6311,34 +6378,34 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B29" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B30" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B31" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B32" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -6355,7 +6422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
@@ -6367,7 +6434,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6375,338 +6442,338 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B4" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B6" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B8" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B9" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B11" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B12" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B13" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B14" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B15" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B16" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B17" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B18" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B19" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B20" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B21" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B22" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B23" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B24" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B25" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B26" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B27" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B28" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B29" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B30" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B31" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B32" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B33" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B34" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B35" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B36" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B37" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B38" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B39" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B40" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B41" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B42" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B43" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -6729,7 +6796,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6737,98 +6804,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B2" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B5" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B10" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B11" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B12" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B13" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -6840,7 +6907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -6851,7 +6918,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6859,178 +6926,178 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B6" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B7" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B9" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B10" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B11" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B12" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B13" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B14" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B15" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B16" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B17" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B18" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B19" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B20" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B21" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B22" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B23" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7048,10 +7115,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7061,7 +7128,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -7069,178 +7136,178 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B6" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B7" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B9" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B10" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B11" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B12" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B13" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B14" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B15" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B16" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B17" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B18" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B19" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B20" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B21" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B22" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B23" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7253,179 +7320,58 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B25" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B26" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B27" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B28" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B29" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1351</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1368</v>
-      </c>
+      <c r="A34" s="5"/>
     </row>
     <row r="40" spans="1:2" ht="15.75">
-      <c r="A40" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>477</v>
-      </c>
-      <c r="B44" t="s">
-        <v>478</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="15.75">
-      <c r="A45" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>476</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="15.75">
-      <c r="A46" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1365</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7437,7 +7383,7 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7572,7 +7518,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7617,7 +7563,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -7625,15 +7571,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>530</v>
@@ -7641,7 +7587,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>418</v>
@@ -7649,7 +7595,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>420</v>
@@ -7657,7 +7603,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>422</v>
@@ -7665,7 +7611,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -7695,7 +7641,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -7703,122 +7649,122 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B4" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B5" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B6" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B7" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B8" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B9" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B10" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B11" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B12" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B13" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="B14" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B15" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B16" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -7830,8 +7776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7842,7 +7788,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -7850,7 +7796,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>407</v>
@@ -7858,26 +7804,26 @@
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="4" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B5" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -7890,79 +7836,79 @@
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="B7" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="4" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="B8" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="4" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B9" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B10" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="B11" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="B12" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B13" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B14" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B15" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="A16" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>338</v>
@@ -7970,7 +7916,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="4" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="B17" t="s">
         <v>346</v>
@@ -7978,26 +7924,26 @@
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="B18" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="4" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B19" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="4" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B20" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -8010,7 +7956,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8021,7 +7967,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8029,15 +7975,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="B2" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B3" t="s">
         <v>144</v>
@@ -8045,66 +7991,66 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B4" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="B5" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="B6" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="B7" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="B8" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="B9" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B10" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8112,23 +8058,23 @@
         <v>525</v>
       </c>
       <c r="B12" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B13" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="B14" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8141,7 +8087,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>476</v>
@@ -8149,7 +8095,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>60</v>
@@ -8157,10 +8103,149 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="B18" t="s">
-        <v>1365</v>
+        <v>1359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -8172,8 +8257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8195,7 +8280,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8256,10 +8341,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8288,10 +8373,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8328,18 +8413,18 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8347,7 +8432,7 @@
         <v>573</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1234</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8355,7 +8440,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8384,10 +8469,10 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8400,10 +8485,10 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8416,10 +8501,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8432,10 +8517,10 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8456,10 +8541,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8480,10 +8565,10 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8504,10 +8589,10 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8528,10 +8613,10 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8552,10 +8637,10 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8576,10 +8661,10 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8600,10 +8685,10 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8664,42 +8749,42 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8712,18 +8797,18 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8744,34 +8829,34 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1233</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -8783,10 +8868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ80"/>
+  <dimension ref="A1:AMJ81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8888,7 +8973,7 @@
         <v>163</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8909,530 +8994,538 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>168</v>
+        <v>1404</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>1141</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>176</v>
+        <v>1138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>177</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1143</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1142</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>178</v>
+        <v>1140</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>1144</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>182</v>
+        <v>1141</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1146</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>186</v>
+        <v>1143</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>1149</v>
+        <v>187</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1148</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>188</v>
+        <v>1146</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>191</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>1155</v>
+        <v>192</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1154</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>194</v>
+        <v>1152</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>195</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>1157</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>196</v>
+        <v>1154</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>197</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>1151</v>
+        <v>198</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1150</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>200</v>
+        <v>1148</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>1153</v>
+        <v>200</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>202</v>
+        <v>1150</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>203</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>1164</v>
+        <v>151</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>205</v>
+        <v>1161</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>206</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>1165</v>
+        <v>207</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>209</v>
+        <v>1162</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>210</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>1167</v>
+        <v>211</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>213</v>
+        <v>1164</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>214</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>1170</v>
+        <v>215</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1169</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>217</v>
+        <v>1167</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1189</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>219</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>1171</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>220</v>
+        <v>1168</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>221</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>1174</v>
+        <v>222</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1173</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>224</v>
+        <v>1171</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>1175</v>
+        <v>226</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1176</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>228</v>
+        <v>1172</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>229</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>1178</v>
+        <v>230</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>232</v>
+        <v>1175</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>233</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>1187</v>
+        <v>234</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1188</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>236</v>
+        <v>1184</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>237</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>1179</v>
+        <v>238</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1180</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>240</v>
+        <v>1176</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>241</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>1181</v>
+        <v>240</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1182</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>242</v>
+        <v>1178</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>243</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>1183</v>
+        <v>242</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>244</v>
+        <v>1180</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>245</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>1185</v>
+        <v>244</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1186</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>246</v>
+        <v>1182</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>247</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>1191</v>
+        <v>246</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1190</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -9851,7 +9944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ128"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -10685,10 +10778,10 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
   </sheetData>
@@ -10702,8 +10795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:B63"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10714,7 +10807,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="2" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -10722,23 +10815,23 @@
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>342</v>
@@ -10746,7 +10839,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>340</v>
@@ -10754,23 +10847,23 @@
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="2" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>494</v>
@@ -10778,167 +10871,167 @@
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="2" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="2" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="2" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="2" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="2" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="2" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="2" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="2" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="2" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="2" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="2" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="2" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="2" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="2" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
       <c r="A26" s="2" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="2" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
       <c r="A28" s="2" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="2" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>378</v>
@@ -10946,7 +11039,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="2" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>440</v>
@@ -10954,15 +11047,15 @@
     </row>
     <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="2" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75">
       <c r="A32" s="2" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>513</v>
@@ -10970,7 +11063,7 @@
     </row>
     <row r="33" spans="1:16384" ht="15.75">
       <c r="A33" s="2" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>390</v>
@@ -10978,7 +11071,7 @@
     </row>
     <row r="34" spans="1:16384" ht="15.75">
       <c r="A34" s="2" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>392</v>
@@ -43758,23 +43851,23 @@
     </row>
     <row r="36" spans="1:16384" ht="15.75">
       <c r="A36" s="2" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="37" spans="1:16384" ht="15.75">
       <c r="A37" s="2" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="38" spans="1:16384" ht="15.75">
       <c r="A38" s="2" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>396</v>
@@ -43782,7 +43875,7 @@
     </row>
     <row r="39" spans="1:16384" ht="15.75">
       <c r="A39" s="2" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>398</v>
@@ -43801,71 +43894,71 @@
         <v>489</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="42" spans="1:16384" ht="15.75">
       <c r="A42" s="2" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="43" spans="1:16384" ht="15.75">
       <c r="A43" s="2" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="44" spans="1:16384" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="45" spans="1:16384" ht="15.75">
       <c r="A45" s="2" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="46" spans="1:16384" ht="15.75">
       <c r="A46" s="2" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="47" spans="1:16384" ht="15.75">
       <c r="A47" s="2" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="48" spans="1:16384" ht="15.75">
       <c r="A48" s="2" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75">
       <c r="A49" s="2" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75">
@@ -43878,7 +43971,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75">
       <c r="A51" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>407</v>
@@ -43886,26 +43979,26 @@
     </row>
     <row r="52" spans="1:2" ht="15.75">
       <c r="A52" s="2" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75">
       <c r="A53" s="2" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75">
       <c r="A54" s="4" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B54" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75">
@@ -43918,58 +44011,58 @@
     </row>
     <row r="56" spans="1:2" ht="15.75">
       <c r="A56" s="4" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="B56" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75">
       <c r="A57" s="4" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="B57" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75">
       <c r="A58" s="4" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B58" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75">
       <c r="A59" s="4" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="B59" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75">
       <c r="A60" s="4" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="B60" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75">
       <c r="A61" s="4" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B61" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75">
       <c r="A62" s="4" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="B62" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -44377,10 +44470,10 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="50" spans="1:2">

--- a/Uls_Ramya/TestData/IjaraJSPaths.xlsx
+++ b/Uls_Ramya/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" tabRatio="911" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="AL_OFF_CustomerDetail" sheetId="20" r:id="rId8"/>
     <sheet name="EmpDetailElements" sheetId="8" r:id="rId9"/>
     <sheet name="CustomerDebt" sheetId="9" r:id="rId10"/>
-    <sheet name="appDataEntry_js" sheetId="10" r:id="rId11"/>
+    <sheet name="AppDataEn_FacilityDetails" sheetId="10" r:id="rId11"/>
     <sheet name="Murabha_Repayment_js" sheetId="11" r:id="rId12"/>
     <sheet name="Tawarooq_Repayment" sheetId="12" r:id="rId13"/>
     <sheet name="murabha_identificationdetail_js" sheetId="13" r:id="rId14"/>
@@ -4172,9 +4172,6 @@
     <t>document.querySelector('digital-form-error[ng-reflect-msg="Invalid_TIME_FORMAT"]').innerText</t>
   </si>
   <si>
-    <t>document.querySelector('kub-prime-ccy[id="requestedAmount"]')</t>
-  </si>
-  <si>
     <t>document.querySelector('kub-prime-ccy[id="requestedAmount"] span[class="redclr ng-star-inserted"')</t>
   </si>
   <si>
@@ -4254,6 +4251,9 @@
   </si>
   <si>
     <t>year_of_manufacture_calendar_input_Today</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="amountRequested"]')</t>
   </si>
 </sst>
 </file>
@@ -4903,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5015,7 +5015,7 @@
         <v>725</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1377</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>733</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>734</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>1236</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>746</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8130,7 +8130,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8154,10 +8154,10 @@
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1384</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
@@ -8165,23 +8165,23 @@
         <v>1302</v>
       </c>
       <c r="B5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B6" t="s">
         <v>1387</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B7" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
@@ -8189,7 +8189,7 @@
         <v>1307</v>
       </c>
       <c r="B8" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -8197,7 +8197,7 @@
         <v>1309</v>
       </c>
       <c r="B9" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
@@ -8205,47 +8205,47 @@
         <v>1372</v>
       </c>
       <c r="B10" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B11" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B12" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B13" t="s">
         <v>1395</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B14" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B15" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -8832,7 +8832,7 @@
         <v>1229</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8870,7 +8870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -8994,10 +8994,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="16" spans="1:2">
